--- a/Import Data/85x75.xlsx
+++ b/Import Data/85x75.xlsx
@@ -1,22 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\GitHub\dbf-propulsions\Import Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D34356E-5896-4520-93A7-AD830B3DFBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="84" windowWidth="10500" windowHeight="5856"/>
+    <workbookView xWindow="21300" yWindow="4845" windowWidth="14130" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="46">
   <si>
     <t>8.5x7.5</t>
   </si>
@@ -155,18 +174,12 @@
   <si>
     <t>(Lbf)</t>
   </si>
-  <si>
-    <t>0.98-NaN</t>
-  </si>
-  <si>
-    <t>1.04-NaN</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +217,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -250,7 +271,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,9 +303,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -316,6 +355,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -491,16 +548,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I935"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A607" workbookViewId="0">
+      <selection activeCell="K614" sqref="K614"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -511,7 +568,7 @@
         <v>41997</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -540,12 +597,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -556,7 +613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -579,7 +636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -602,7 +659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -610,7 +667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -627,7 +684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -641,7 +698,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -667,7 +724,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -687,7 +744,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -713,7 +770,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.3</v>
       </c>
@@ -739,7 +796,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.6</v>
       </c>
@@ -765,7 +822,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.9</v>
       </c>
@@ -791,7 +848,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1.3</v>
       </c>
@@ -817,7 +874,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1.6</v>
       </c>
@@ -843,7 +900,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1.9</v>
       </c>
@@ -869,7 +926,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2.2000000000000002</v>
       </c>
@@ -895,7 +952,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2.5</v>
       </c>
@@ -921,7 +978,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2.8</v>
       </c>
@@ -947,7 +1004,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3.1</v>
       </c>
@@ -973,7 +1030,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3.5</v>
       </c>
@@ -999,7 +1056,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3.8</v>
       </c>
@@ -1025,7 +1082,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4.0999999999999996</v>
       </c>
@@ -1051,7 +1108,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4.4000000000000004</v>
       </c>
@@ -1077,7 +1134,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4.7</v>
       </c>
@@ -1103,7 +1160,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5</v>
       </c>
@@ -1129,7 +1186,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5.4</v>
       </c>
@@ -1155,7 +1212,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5.7</v>
       </c>
@@ -1181,7 +1238,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>6</v>
       </c>
@@ -1207,7 +1264,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>6.3</v>
       </c>
@@ -1233,7 +1290,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>6.6</v>
       </c>
@@ -1259,7 +1316,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>6.9</v>
       </c>
@@ -1285,7 +1342,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>7.2</v>
       </c>
@@ -1311,7 +1368,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>7.6</v>
       </c>
@@ -1337,7 +1394,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>7.9</v>
       </c>
@@ -1363,7 +1420,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>8.1999999999999993</v>
       </c>
@@ -1389,7 +1446,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>8.5</v>
       </c>
@@ -1415,7 +1472,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>8.8000000000000007</v>
       </c>
@@ -1441,7 +1498,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>9.1</v>
       </c>
@@ -1467,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -1481,7 +1538,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1507,7 +1564,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>40</v>
       </c>
@@ -1527,7 +1584,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0</v>
       </c>
@@ -1553,7 +1610,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.6</v>
       </c>
@@ -1579,7 +1636,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1.3</v>
       </c>
@@ -1605,7 +1662,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1.9</v>
       </c>
@@ -1631,7 +1688,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2.5</v>
       </c>
@@ -1657,7 +1714,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3.2</v>
       </c>
@@ -1683,7 +1740,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3.8</v>
       </c>
@@ -1709,7 +1766,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>4.4000000000000004</v>
       </c>
@@ -1735,7 +1792,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5</v>
       </c>
@@ -1761,7 +1818,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>5.7</v>
       </c>
@@ -1787,7 +1844,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>6.3</v>
       </c>
@@ -1813,7 +1870,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>6.9</v>
       </c>
@@ -1839,7 +1896,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>7.6</v>
       </c>
@@ -1865,7 +1922,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>8.1999999999999993</v>
       </c>
@@ -1891,7 +1948,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>8.8000000000000007</v>
       </c>
@@ -1917,7 +1974,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>9.5</v>
       </c>
@@ -1943,7 +2000,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>10.1</v>
       </c>
@@ -1969,7 +2026,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>10.7</v>
       </c>
@@ -1995,7 +2052,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>11.3</v>
       </c>
@@ -2021,7 +2078,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>12</v>
       </c>
@@ -2047,7 +2104,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>12.6</v>
       </c>
@@ -2073,7 +2130,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>13.2</v>
       </c>
@@ -2099,7 +2156,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>13.9</v>
       </c>
@@ -2125,7 +2182,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>14.5</v>
       </c>
@@ -2151,7 +2208,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>15.1</v>
       </c>
@@ -2177,7 +2234,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>15.8</v>
       </c>
@@ -2203,7 +2260,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>16.399999999999999</v>
       </c>
@@ -2229,7 +2286,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>17</v>
       </c>
@@ -2255,7 +2312,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>17.600000000000001</v>
       </c>
@@ -2281,7 +2338,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>18.3</v>
       </c>
@@ -2307,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>30</v>
       </c>
@@ -2321,7 +2378,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -2347,7 +2404,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>40</v>
       </c>
@@ -2367,7 +2424,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0</v>
       </c>
@@ -2393,7 +2450,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>0.9</v>
       </c>
@@ -2419,7 +2476,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1.9</v>
       </c>
@@ -2445,7 +2502,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2.8</v>
       </c>
@@ -2471,7 +2528,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>3.8</v>
       </c>
@@ -2497,7 +2554,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>4.7</v>
       </c>
@@ -2523,7 +2580,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>5.7</v>
       </c>
@@ -2549,7 +2606,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>6.6</v>
       </c>
@@ -2575,7 +2632,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>7.6</v>
       </c>
@@ -2601,7 +2658,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>8.5</v>
       </c>
@@ -2627,7 +2684,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>9.4</v>
       </c>
@@ -2653,7 +2710,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>10.4</v>
       </c>
@@ -2679,7 +2736,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>11.3</v>
       </c>
@@ -2705,7 +2762,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>12.3</v>
       </c>
@@ -2731,7 +2788,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>13.2</v>
       </c>
@@ -2757,7 +2814,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>14.2</v>
       </c>
@@ -2783,7 +2840,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>15.1</v>
       </c>
@@ -2809,7 +2866,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>16</v>
       </c>
@@ -2835,7 +2892,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>17</v>
       </c>
@@ -2861,7 +2918,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>17.899999999999999</v>
       </c>
@@ -2887,7 +2944,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>18.899999999999999</v>
       </c>
@@ -2913,7 +2970,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>19.8</v>
       </c>
@@ -2939,7 +2996,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>20.8</v>
       </c>
@@ -2965,7 +3022,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>21.7</v>
       </c>
@@ -2991,7 +3048,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>22.7</v>
       </c>
@@ -3017,7 +3074,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>23.6</v>
       </c>
@@ -3043,7 +3100,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>24.5</v>
       </c>
@@ -3069,7 +3126,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>25.5</v>
       </c>
@@ -3095,7 +3152,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>26.4</v>
       </c>
@@ -3121,7 +3178,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>27.4</v>
       </c>
@@ -3147,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>30</v>
       </c>
@@ -3161,7 +3218,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>26</v>
       </c>
@@ -3187,7 +3244,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>40</v>
       </c>
@@ -3207,7 +3264,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>0</v>
       </c>
@@ -3233,7 +3290,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1.3</v>
       </c>
@@ -3259,7 +3316,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2.5</v>
       </c>
@@ -3285,7 +3342,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>3.8</v>
       </c>
@@ -3311,7 +3368,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>5</v>
       </c>
@@ -3337,7 +3394,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>6.3</v>
       </c>
@@ -3363,7 +3420,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>7.6</v>
       </c>
@@ -3389,7 +3446,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>8.8000000000000007</v>
       </c>
@@ -3415,7 +3472,7 @@
         <v>0.24399999999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>10.1</v>
       </c>
@@ -3441,7 +3498,7 @@
         <v>0.24399999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>11.3</v>
       </c>
@@ -3467,7 +3524,7 @@
         <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>12.6</v>
       </c>
@@ -3493,7 +3550,7 @@
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>13.8</v>
       </c>
@@ -3519,7 +3576,7 @@
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>15.1</v>
       </c>
@@ -3545,7 +3602,7 @@
         <v>0.23899999999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>16.399999999999999</v>
       </c>
@@ -3571,7 +3628,7 @@
         <v>0.23599999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>17.600000000000001</v>
       </c>
@@ -3597,7 +3654,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>18.899999999999999</v>
       </c>
@@ -3623,7 +3680,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>20.100000000000001</v>
       </c>
@@ -3649,7 +3706,7 @@
         <v>0.218</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>21.4</v>
       </c>
@@ -3675,7 +3732,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>22.7</v>
       </c>
@@ -3701,7 +3758,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>23.9</v>
       </c>
@@ -3727,7 +3784,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>25.2</v>
       </c>
@@ -3753,7 +3810,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>26.4</v>
       </c>
@@ -3779,7 +3836,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>27.7</v>
       </c>
@@ -3805,7 +3862,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>29</v>
       </c>
@@ -3831,7 +3888,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>30.2</v>
       </c>
@@ -3857,7 +3914,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>31.5</v>
       </c>
@@ -3883,7 +3940,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>32.700000000000003</v>
       </c>
@@ -3909,7 +3966,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>34</v>
       </c>
@@ -3935,7 +3992,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>35.200000000000003</v>
       </c>
@@ -3961,7 +4018,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>36.5</v>
       </c>
@@ -3987,7 +4044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>30</v>
       </c>
@@ -4001,7 +4058,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>26</v>
       </c>
@@ -4027,7 +4084,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>40</v>
       </c>
@@ -4047,7 +4104,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>0</v>
       </c>
@@ -4073,7 +4130,7 @@
         <v>0.38200000000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1.6</v>
       </c>
@@ -4099,7 +4156,7 @@
         <v>0.38200000000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>3.1</v>
       </c>
@@ -4125,7 +4182,7 @@
         <v>0.38300000000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>4.7</v>
       </c>
@@ -4151,7 +4208,7 @@
         <v>0.38300000000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>6.3</v>
       </c>
@@ -4177,7 +4234,7 @@
         <v>0.38300000000000001</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>7.9</v>
       </c>
@@ -4203,7 +4260,7 @@
         <v>0.38300000000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>9.4</v>
       </c>
@@ -4229,7 +4286,7 @@
         <v>0.38300000000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>11</v>
       </c>
@@ -4255,7 +4312,7 @@
         <v>0.38200000000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>12.6</v>
       </c>
@@ -4281,7 +4338,7 @@
         <v>0.38100000000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>14.2</v>
       </c>
@@ -4307,7 +4364,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>15.7</v>
       </c>
@@ -4333,7 +4390,7 @@
         <v>0.378</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>17.3</v>
       </c>
@@ -4359,7 +4416,7 @@
         <v>0.376</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>18.899999999999999</v>
       </c>
@@ -4385,7 +4442,7 @@
         <v>0.373</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>20.5</v>
       </c>
@@ -4411,7 +4468,7 @@
         <v>0.36899999999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>22</v>
       </c>
@@ -4437,7 +4494,7 @@
         <v>0.36299999999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>23.6</v>
       </c>
@@ -4463,7 +4520,7 @@
         <v>0.35399999999999998</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>25.2</v>
       </c>
@@ -4489,7 +4546,7 @@
         <v>0.34200000000000003</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>26.8</v>
       </c>
@@ -4515,7 +4572,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>28.3</v>
       </c>
@@ -4541,7 +4598,7 @@
         <v>0.30099999999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>29.9</v>
       </c>
@@ -4567,7 +4624,7 @@
         <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>31.5</v>
       </c>
@@ -4593,7 +4650,7 @@
         <v>0.251</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>33</v>
       </c>
@@ -4619,7 +4676,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>34.6</v>
       </c>
@@ -4645,7 +4702,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>36.200000000000003</v>
       </c>
@@ -4671,7 +4728,7 @@
         <v>0.17100000000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>37.799999999999997</v>
       </c>
@@ -4697,7 +4754,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>39.299999999999997</v>
       </c>
@@ -4723,7 +4780,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>40.9</v>
       </c>
@@ -4749,7 +4806,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>42.5</v>
       </c>
@@ -4775,7 +4832,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>44.1</v>
       </c>
@@ -4801,7 +4858,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>45.6</v>
       </c>
@@ -4827,7 +4884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>30</v>
       </c>
@@ -4841,7 +4898,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>26</v>
       </c>
@@ -4867,7 +4924,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>40</v>
       </c>
@@ -4887,7 +4944,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>0</v>
       </c>
@@ -4913,7 +4970,7 @@
         <v>0.55100000000000005</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1.9</v>
       </c>
@@ -4939,7 +4996,7 @@
         <v>0.55100000000000005</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>3.8</v>
       </c>
@@ -4965,7 +5022,7 @@
         <v>0.55100000000000005</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>5.7</v>
       </c>
@@ -4991,7 +5048,7 @@
         <v>0.55100000000000005</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>7.6</v>
       </c>
@@ -5017,7 +5074,7 @@
         <v>0.55100000000000005</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>9.4</v>
       </c>
@@ -5043,7 +5100,7 @@
         <v>0.55100000000000005</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>11.3</v>
       </c>
@@ -5069,7 +5126,7 @@
         <v>0.55100000000000005</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>13.2</v>
       </c>
@@ -5095,7 +5152,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>15.1</v>
       </c>
@@ -5121,7 +5178,7 @@
         <v>0.54900000000000004</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>17</v>
       </c>
@@ -5147,7 +5204,7 @@
         <v>0.54800000000000004</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>18.899999999999999</v>
       </c>
@@ -5173,7 +5230,7 @@
         <v>0.54500000000000004</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>20.8</v>
       </c>
@@ -5199,7 +5256,7 @@
         <v>0.54200000000000004</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>22.7</v>
       </c>
@@ -5225,7 +5282,7 @@
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>24.5</v>
       </c>
@@ -5251,7 +5308,7 @@
         <v>0.53200000000000003</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>26.4</v>
       </c>
@@ -5277,7 +5334,7 @@
         <v>0.52300000000000002</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>28.3</v>
       </c>
@@ -5303,7 +5360,7 @@
         <v>0.51100000000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>30.2</v>
       </c>
@@ -5329,7 +5386,7 @@
         <v>0.49299999999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>32.1</v>
       </c>
@@ -5355,7 +5412,7 @@
         <v>0.46800000000000003</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>34</v>
       </c>
@@ -5381,7 +5438,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>35.9</v>
       </c>
@@ -5407,7 +5464,7 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>37.799999999999997</v>
       </c>
@@ -5433,7 +5490,7 @@
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>39.700000000000003</v>
       </c>
@@ -5459,7 +5516,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>41.5</v>
       </c>
@@ -5485,7 +5542,7 @@
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>43.4</v>
       </c>
@@ -5511,7 +5568,7 @@
         <v>0.248</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>45.3</v>
       </c>
@@ -5537,7 +5594,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>47.2</v>
       </c>
@@ -5563,7 +5620,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>49.1</v>
       </c>
@@ -5589,7 +5646,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>51</v>
       </c>
@@ -5615,7 +5672,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>52.9</v>
       </c>
@@ -5641,7 +5698,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>54.8</v>
       </c>
@@ -5667,7 +5724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>30</v>
       </c>
@@ -5681,7 +5738,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>26</v>
       </c>
@@ -5707,7 +5764,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>40</v>
       </c>
@@ -5727,7 +5784,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>0</v>
       </c>
@@ -5753,7 +5810,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>2.2000000000000002</v>
       </c>
@@ -5779,7 +5836,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>4.4000000000000004</v>
       </c>
@@ -5805,7 +5862,7 @@
         <v>0.751</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>6.6</v>
       </c>
@@ -5831,7 +5888,7 @@
         <v>0.751</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>8.8000000000000007</v>
       </c>
@@ -5857,7 +5914,7 @@
         <v>0.751</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>11</v>
       </c>
@@ -5883,7 +5940,7 @@
         <v>0.751</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>13.2</v>
       </c>
@@ -5909,7 +5966,7 @@
         <v>0.751</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>15.4</v>
       </c>
@@ -5935,7 +5992,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>17.7</v>
       </c>
@@ -5961,7 +6018,7 @@
         <v>0.748</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>19.899999999999999</v>
       </c>
@@ -5987,7 +6044,7 @@
         <v>0.746</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>22.1</v>
       </c>
@@ -6013,7 +6070,7 @@
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>24.3</v>
       </c>
@@ -6039,7 +6096,7 @@
         <v>0.73899999999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>26.5</v>
       </c>
@@ -6065,7 +6122,7 @@
         <v>0.73299999999999998</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>28.7</v>
       </c>
@@ -6091,7 +6148,7 @@
         <v>0.72399999999999998</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>30.9</v>
       </c>
@@ -6117,7 +6174,7 @@
         <v>0.71299999999999997</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>33.1</v>
       </c>
@@ -6143,7 +6200,7 @@
         <v>0.69699999999999995</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>35.299999999999997</v>
       </c>
@@ -6169,7 +6226,7 @@
         <v>0.67200000000000004</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>37.5</v>
       </c>
@@ -6195,7 +6252,7 @@
         <v>0.63800000000000001</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>39.700000000000003</v>
       </c>
@@ -6221,7 +6278,7 @@
         <v>0.59199999999999997</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>41.9</v>
       </c>
@@ -6247,7 +6304,7 @@
         <v>0.54300000000000004</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>44.1</v>
       </c>
@@ -6273,7 +6330,7 @@
         <v>0.49299999999999999</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>46.3</v>
       </c>
@@ -6299,7 +6356,7 @@
         <v>0.442</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>48.5</v>
       </c>
@@ -6325,7 +6382,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>50.8</v>
       </c>
@@ -6351,7 +6408,7 @@
         <v>0.33700000000000002</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>53</v>
       </c>
@@ -6377,7 +6434,7 @@
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>55.2</v>
       </c>
@@ -6403,7 +6460,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>57.4</v>
       </c>
@@ -6429,7 +6486,7 @@
         <v>0.17100000000000001</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>59.6</v>
       </c>
@@ -6455,7 +6512,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>61.8</v>
       </c>
@@ -6481,7 +6538,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>64</v>
       </c>
@@ -6507,7 +6564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>30</v>
       </c>
@@ -6521,7 +6578,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>26</v>
       </c>
@@ -6547,7 +6604,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>40</v>
       </c>
@@ -6567,7 +6624,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>0</v>
       </c>
@@ -6593,7 +6650,7 @@
         <v>0.97899999999999998</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>2.5</v>
       </c>
@@ -6619,7 +6676,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>5</v>
       </c>
@@ -6645,7 +6702,7 @@
         <v>0.98099999999999998</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>7.6</v>
       </c>
@@ -6671,7 +6728,7 @@
         <v>0.98099999999999998</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>10.1</v>
       </c>
@@ -6697,7 +6754,7 @@
         <v>0.98099999999999998</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>12.6</v>
       </c>
@@ -6723,7 +6780,7 @@
         <v>0.98099999999999998</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>15.1</v>
       </c>
@@ -6749,7 +6806,7 @@
         <v>0.98099999999999998</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>17.7</v>
       </c>
@@ -6775,7 +6832,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>20.2</v>
       </c>
@@ -6801,7 +6858,7 @@
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>22.7</v>
       </c>
@@ -6827,7 +6884,7 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>25.2</v>
       </c>
@@ -6853,7 +6910,7 @@
         <v>0.97099999999999997</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>27.7</v>
       </c>
@@ -6879,7 +6936,7 @@
         <v>0.96599999999999997</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>30.3</v>
       </c>
@@ -6905,7 +6962,7 @@
         <v>0.95799999999999996</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>32.799999999999997</v>
       </c>
@@ -6931,7 +6988,7 @@
         <v>0.94699999999999995</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>35.299999999999997</v>
       </c>
@@ -6957,7 +7014,7 @@
         <v>0.93300000000000005</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>37.799999999999997</v>
       </c>
@@ -6983,7 +7040,7 @@
         <v>0.91200000000000003</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>40.299999999999997</v>
       </c>
@@ -7009,7 +7066,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>42.9</v>
       </c>
@@ -7035,7 +7092,7 @@
         <v>0.83699999999999997</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>45.4</v>
       </c>
@@ -7061,7 +7118,7 @@
         <v>0.77700000000000002</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>47.9</v>
       </c>
@@ -7087,7 +7144,7 @@
         <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>50.4</v>
       </c>
@@ -7113,7 +7170,7 @@
         <v>0.64700000000000002</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>53</v>
       </c>
@@ -7139,7 +7196,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>55.5</v>
       </c>
@@ -7165,7 +7222,7 @@
         <v>0.51200000000000001</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>58</v>
       </c>
@@ -7191,7 +7248,7 @@
         <v>0.442</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>60.5</v>
       </c>
@@ -7217,7 +7274,7 @@
         <v>0.371</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>63</v>
       </c>
@@ -7243,7 +7300,7 @@
         <v>0.29799999999999999</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>65.599999999999994</v>
       </c>
@@ -7269,7 +7326,7 @@
         <v>0.224</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>68.099999999999994</v>
       </c>
@@ -7295,7 +7352,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>70.599999999999994</v>
       </c>
@@ -7321,7 +7378,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>73.099999999999994</v>
       </c>
@@ -7347,7 +7404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>30</v>
       </c>
@@ -7361,7 +7418,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>26</v>
       </c>
@@ -7387,7 +7444,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>40</v>
       </c>
@@ -7407,7 +7464,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>0</v>
       </c>
@@ -7433,7 +7490,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>2.8</v>
       </c>
@@ -7459,7 +7516,7 @@
         <v>1.2410000000000001</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>5.7</v>
       </c>
@@ -7485,7 +7542,7 @@
         <v>1.242</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>8.5</v>
       </c>
@@ -7511,7 +7568,7 @@
         <v>1.242</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>11.3</v>
       </c>
@@ -7537,7 +7594,7 @@
         <v>1.242</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>14.2</v>
       </c>
@@ -7563,7 +7620,7 @@
         <v>1.242</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>17</v>
       </c>
@@ -7589,7 +7646,7 @@
         <v>1.242</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>19.8</v>
       </c>
@@ -7615,7 +7672,7 @@
         <v>1.2410000000000001</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>22.7</v>
       </c>
@@ -7641,7 +7698,7 @@
         <v>1.2390000000000001</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>25.5</v>
       </c>
@@ -7667,7 +7724,7 @@
         <v>1.236</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>28.3</v>
       </c>
@@ -7693,7 +7750,7 @@
         <v>1.2310000000000001</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>31.2</v>
       </c>
@@ -7719,7 +7776,7 @@
         <v>1.224</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>34</v>
       </c>
@@ -7745,7 +7802,7 @@
         <v>1.214</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>36.799999999999997</v>
       </c>
@@ -7771,7 +7828,7 @@
         <v>1.202</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>39.700000000000003</v>
       </c>
@@ -7797,7 +7854,7 @@
         <v>1.1839999999999999</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>42.5</v>
       </c>
@@ -7823,7 +7880,7 @@
         <v>1.159</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>45.3</v>
       </c>
@@ -7849,7 +7906,7 @@
         <v>1.119</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>48.2</v>
       </c>
@@ -7875,7 +7932,7 @@
         <v>1.0649999999999999</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>51</v>
       </c>
@@ -7901,7 +7958,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>53.8</v>
       </c>
@@ -7927,7 +7984,7 @@
         <v>0.90800000000000003</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>56.7</v>
       </c>
@@ -7953,7 +8010,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>59.5</v>
       </c>
@@ -7979,7 +8036,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>62.3</v>
       </c>
@@ -8005,7 +8062,7 @@
         <v>0.65400000000000003</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>65.2</v>
       </c>
@@ -8031,7 +8088,7 @@
         <v>0.56499999999999995</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>68</v>
       </c>
@@ -8057,7 +8114,7 @@
         <v>0.47399999999999998</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>70.8</v>
       </c>
@@ -8083,7 +8140,7 @@
         <v>0.38200000000000001</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>73.7</v>
       </c>
@@ -8109,7 +8166,7 @@
         <v>0.28899999999999998</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>76.5</v>
       </c>
@@ -8135,7 +8192,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>79.3</v>
       </c>
@@ -8161,7 +8218,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>82.2</v>
       </c>
@@ -8187,7 +8244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>30</v>
       </c>
@@ -8201,7 +8258,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>26</v>
       </c>
@@ -8227,7 +8284,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>40</v>
       </c>
@@ -8247,7 +8304,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>0</v>
       </c>
@@ -8273,7 +8330,7 @@
         <v>1.5289999999999999</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>3.1</v>
       </c>
@@ -8299,7 +8356,7 @@
         <v>1.5309999999999999</v>
       </c>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>6.3</v>
       </c>
@@ -8325,7 +8382,7 @@
         <v>1.5309999999999999</v>
       </c>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>9.4</v>
       </c>
@@ -8351,7 +8408,7 @@
         <v>1.532</v>
       </c>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>12.6</v>
       </c>
@@ -8377,7 +8434,7 @@
         <v>1.5329999999999999</v>
       </c>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>15.7</v>
       </c>
@@ -8403,7 +8460,7 @@
         <v>1.5329999999999999</v>
       </c>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>18.899999999999999</v>
       </c>
@@ -8429,7 +8486,7 @@
         <v>1.532</v>
       </c>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>22</v>
       </c>
@@ -8455,7 +8512,7 @@
         <v>1.5309999999999999</v>
       </c>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>25.2</v>
       </c>
@@ -8481,7 +8538,7 @@
         <v>1.5289999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>28.3</v>
       </c>
@@ -8507,7 +8564,7 @@
         <v>1.5249999999999999</v>
       </c>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>31.5</v>
       </c>
@@ -8533,7 +8590,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>34.6</v>
       </c>
@@ -8559,7 +8616,7 @@
         <v>1.512</v>
       </c>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>37.799999999999997</v>
       </c>
@@ -8585,7 +8642,7 @@
         <v>1.5009999999999999</v>
       </c>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>40.9</v>
       </c>
@@ -8611,7 +8668,7 @@
         <v>1.486</v>
       </c>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>44.1</v>
       </c>
@@ -8637,7 +8694,7 @@
         <v>1.4650000000000001</v>
       </c>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>47.2</v>
       </c>
@@ -8663,7 +8720,7 @@
         <v>1.4339999999999999</v>
       </c>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>50.4</v>
       </c>
@@ -8689,7 +8746,7 @@
         <v>1.387</v>
       </c>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>53.5</v>
       </c>
@@ -8715,7 +8772,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>56.6</v>
       </c>
@@ -8741,7 +8798,7 @@
         <v>1.2290000000000001</v>
       </c>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>59.8</v>
       </c>
@@ -8767,7 +8824,7 @@
         <v>1.127</v>
       </c>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>62.9</v>
       </c>
@@ -8793,7 +8850,7 @@
         <v>1.024</v>
       </c>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>66.099999999999994</v>
       </c>
@@ -8819,7 +8876,7 @@
         <v>0.91800000000000004</v>
       </c>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>69.2</v>
       </c>
@@ -8845,7 +8902,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>72.400000000000006</v>
       </c>
@@ -8871,7 +8928,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>75.5</v>
       </c>
@@ -8897,7 +8954,7 @@
         <v>0.58799999999999997</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>78.7</v>
       </c>
@@ -8923,7 +8980,7 @@
         <v>0.47399999999999998</v>
       </c>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>81.8</v>
       </c>
@@ -8949,7 +9006,7 @@
         <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>85</v>
       </c>
@@ -8975,7 +9032,7 @@
         <v>0.23899999999999999</v>
       </c>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>88.1</v>
       </c>
@@ -9001,7 +9058,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>91.3</v>
       </c>
@@ -9027,7 +9084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>30</v>
       </c>
@@ -9041,7 +9098,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>26</v>
       </c>
@@ -9067,7 +9124,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>40</v>
       </c>
@@ -9087,7 +9144,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>0</v>
       </c>
@@ -9113,7 +9170,7 @@
         <v>1.849</v>
       </c>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>3.5</v>
       </c>
@@ -9139,7 +9196,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>6.9</v>
       </c>
@@ -9165,7 +9222,7 @@
         <v>1.851</v>
       </c>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>10.4</v>
       </c>
@@ -9191,7 +9248,7 @@
         <v>1.8520000000000001</v>
       </c>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>13.9</v>
       </c>
@@ -9217,7 +9274,7 @@
         <v>1.853</v>
       </c>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>17.3</v>
       </c>
@@ -9243,7 +9300,7 @@
         <v>1.853</v>
       </c>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>20.8</v>
       </c>
@@ -9269,7 +9326,7 @@
         <v>1.853</v>
       </c>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>24.2</v>
       </c>
@@ -9295,7 +9352,7 @@
         <v>1.8520000000000001</v>
       </c>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>27.7</v>
       </c>
@@ -9321,7 +9378,7 @@
         <v>1.849</v>
       </c>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>31.2</v>
       </c>
@@ -9347,7 +9404,7 @@
         <v>1.845</v>
       </c>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>34.6</v>
       </c>
@@ -9373,7 +9430,7 @@
         <v>1.839</v>
       </c>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>38.1</v>
       </c>
@@ -9399,7 +9456,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>41.6</v>
       </c>
@@ -9425,7 +9482,7 @@
         <v>1.8180000000000001</v>
       </c>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>45</v>
       </c>
@@ -9451,7 +9508,7 @@
         <v>1.8009999999999999</v>
       </c>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>48.5</v>
       </c>
@@ -9477,7 +9534,7 @@
         <v>1.776</v>
       </c>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>52</v>
       </c>
@@ -9503,7 +9560,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>55.4</v>
       </c>
@@ -9529,7 +9586,7 @@
         <v>1.6839999999999999</v>
       </c>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>58.9</v>
       </c>
@@ -9555,7 +9612,7 @@
         <v>1.6040000000000001</v>
       </c>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>62.3</v>
       </c>
@@ -9581,7 +9638,7 @@
         <v>1.4950000000000001</v>
       </c>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>65.8</v>
       </c>
@@ -9607,7 +9664,7 @@
         <v>1.371</v>
       </c>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>69.3</v>
       </c>
@@ -9633,7 +9690,7 @@
         <v>1.244</v>
       </c>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>72.7</v>
       </c>
@@ -9659,7 +9716,7 @@
         <v>1.1160000000000001</v>
       </c>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>76.2</v>
       </c>
@@ -9685,7 +9742,7 @@
         <v>0.98399999999999999</v>
       </c>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>79.7</v>
       </c>
@@ -9711,7 +9768,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>83.1</v>
       </c>
@@ -9737,7 +9794,7 @@
         <v>0.71399999999999997</v>
       </c>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>86.6</v>
       </c>
@@ -9763,7 +9820,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>90.1</v>
       </c>
@@ -9789,7 +9846,7 @@
         <v>0.433</v>
       </c>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>93.5</v>
       </c>
@@ -9815,7 +9872,7 @@
         <v>0.28899999999999998</v>
       </c>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>97</v>
       </c>
@@ -9841,7 +9898,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>100.4</v>
       </c>
@@ -9867,7 +9924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>30</v>
       </c>
@@ -9881,7 +9938,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>26</v>
       </c>
@@ -9907,7 +9964,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>40</v>
       </c>
@@ -9927,7 +9984,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>0</v>
       </c>
@@ -9953,7 +10010,7 @@
         <v>2.198</v>
       </c>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>3.8</v>
       </c>
@@ -9979,7 +10036,7 @@
         <v>2.1989999999999998</v>
       </c>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>7.6</v>
       </c>
@@ -10005,7 +10062,7 @@
         <v>2.2010000000000001</v>
       </c>
     </row>
-    <row r="428" spans="1:8">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>11.3</v>
       </c>
@@ -10031,7 +10088,7 @@
         <v>2.202</v>
       </c>
     </row>
-    <row r="429" spans="1:8">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>15.1</v>
       </c>
@@ -10057,7 +10114,7 @@
         <v>2.2029999999999998</v>
       </c>
     </row>
-    <row r="430" spans="1:8">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>18.899999999999999</v>
       </c>
@@ -10083,7 +10140,7 @@
         <v>2.2040000000000002</v>
       </c>
     </row>
-    <row r="431" spans="1:8">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>22.7</v>
       </c>
@@ -10109,7 +10166,7 @@
         <v>2.2029999999999998</v>
       </c>
     </row>
-    <row r="432" spans="1:8">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>26.4</v>
       </c>
@@ -10135,7 +10192,7 @@
         <v>2.202</v>
       </c>
     </row>
-    <row r="433" spans="1:8">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>30.2</v>
       </c>
@@ -10161,7 +10218,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="434" spans="1:8">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>34</v>
       </c>
@@ -10187,7 +10244,7 @@
         <v>2.1960000000000002</v>
       </c>
     </row>
-    <row r="435" spans="1:8">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>37.799999999999997</v>
       </c>
@@ -10213,7 +10270,7 @@
         <v>2.1890000000000001</v>
       </c>
     </row>
-    <row r="436" spans="1:8">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>41.6</v>
       </c>
@@ -10239,7 +10296,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="437" spans="1:8">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>45.3</v>
       </c>
@@ -10265,7 +10322,7 @@
         <v>2.165</v>
       </c>
     </row>
-    <row r="438" spans="1:8">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>49.1</v>
       </c>
@@ -10291,7 +10348,7 @@
         <v>2.1469999999999998</v>
       </c>
     </row>
-    <row r="439" spans="1:8">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>52.9</v>
       </c>
@@ -10317,7 +10374,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="440" spans="1:8">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>56.7</v>
       </c>
@@ -10343,7 +10400,7 @@
         <v>2.0779999999999998</v>
       </c>
     </row>
-    <row r="441" spans="1:8">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>60.4</v>
       </c>
@@ -10369,7 +10426,7 @@
         <v>2.0129999999999999</v>
       </c>
     </row>
-    <row r="442" spans="1:8">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>64.2</v>
       </c>
@@ -10395,7 +10452,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="443" spans="1:8">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>68</v>
       </c>
@@ -10421,7 +10478,7 @@
         <v>1.7909999999999999</v>
       </c>
     </row>
-    <row r="444" spans="1:8">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>71.8</v>
       </c>
@@ -10447,7 +10504,7 @@
         <v>1.6419999999999999</v>
       </c>
     </row>
-    <row r="445" spans="1:8">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>75.599999999999994</v>
       </c>
@@ -10473,7 +10530,7 @@
         <v>1.4910000000000001</v>
       </c>
     </row>
-    <row r="446" spans="1:8">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>79.3</v>
       </c>
@@ -10499,7 +10556,7 @@
         <v>1.337</v>
       </c>
     </row>
-    <row r="447" spans="1:8">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>83.1</v>
       </c>
@@ -10525,7 +10582,7 @@
         <v>1.179</v>
       </c>
     </row>
-    <row r="448" spans="1:8">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>86.9</v>
       </c>
@@ -10551,7 +10608,7 @@
         <v>1.0189999999999999</v>
       </c>
     </row>
-    <row r="449" spans="1:8">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>90.7</v>
       </c>
@@ -10577,7 +10634,7 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="450" spans="1:8">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>94.4</v>
       </c>
@@ -10603,7 +10660,7 @@
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="451" spans="1:8">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>98.2</v>
       </c>
@@ -10629,7 +10686,7 @@
         <v>0.51900000000000002</v>
       </c>
     </row>
-    <row r="452" spans="1:8">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>102</v>
       </c>
@@ -10655,7 +10712,7 @@
         <v>0.34699999999999998</v>
       </c>
     </row>
-    <row r="453" spans="1:8">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>105.8</v>
       </c>
@@ -10681,7 +10738,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="454" spans="1:8">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>109.6</v>
       </c>
@@ -10707,7 +10764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:8">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>30</v>
       </c>
@@ -10721,7 +10778,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="460" spans="1:8">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>26</v>
       </c>
@@ -10747,7 +10804,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="461" spans="1:8">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>40</v>
       </c>
@@ -10767,7 +10824,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="462" spans="1:8">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>0</v>
       </c>
@@ -10793,7 +10850,7 @@
         <v>2.577</v>
       </c>
     </row>
-    <row r="463" spans="1:8">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>4.0999999999999996</v>
       </c>
@@ -10819,7 +10876,7 @@
         <v>2.5790000000000002</v>
       </c>
     </row>
-    <row r="464" spans="1:8">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>8.1999999999999993</v>
       </c>
@@ -10845,7 +10902,7 @@
         <v>2.581</v>
       </c>
     </row>
-    <row r="465" spans="1:8">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>12.3</v>
       </c>
@@ -10871,7 +10928,7 @@
         <v>2.5819999999999999</v>
       </c>
     </row>
-    <row r="466" spans="1:8">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>16.399999999999999</v>
       </c>
@@ -10897,7 +10954,7 @@
         <v>2.5830000000000002</v>
       </c>
     </row>
-    <row r="467" spans="1:8">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>20.5</v>
       </c>
@@ -10923,7 +10980,7 @@
         <v>2.5840000000000001</v>
       </c>
     </row>
-    <row r="468" spans="1:8">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>24.6</v>
       </c>
@@ -10949,7 +11006,7 @@
         <v>2.5840000000000001</v>
       </c>
     </row>
-    <row r="469" spans="1:8">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>28.7</v>
       </c>
@@ -10975,7 +11032,7 @@
         <v>2.5840000000000001</v>
       </c>
     </row>
-    <row r="470" spans="1:8">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>32.799999999999997</v>
       </c>
@@ -11001,7 +11058,7 @@
         <v>2.5819999999999999</v>
       </c>
     </row>
-    <row r="471" spans="1:8">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>36.799999999999997</v>
       </c>
@@ -11027,7 +11084,7 @@
         <v>2.577</v>
       </c>
     </row>
-    <row r="472" spans="1:8">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>40.9</v>
       </c>
@@ -11053,7 +11110,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="473" spans="1:8">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>45</v>
       </c>
@@ -11079,7 +11136,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="474" spans="1:8">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>49.1</v>
       </c>
@@ -11105,7 +11162,7 @@
         <v>2.5449999999999999</v>
       </c>
     </row>
-    <row r="475" spans="1:8">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>53.2</v>
       </c>
@@ -11131,7 +11188,7 @@
         <v>2.524</v>
       </c>
     </row>
-    <row r="476" spans="1:8">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>57.3</v>
       </c>
@@ -11157,7 +11214,7 @@
         <v>2.4950000000000001</v>
       </c>
     </row>
-    <row r="477" spans="1:8">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>61.4</v>
       </c>
@@ -11183,7 +11240,7 @@
         <v>2.4489999999999998</v>
       </c>
     </row>
-    <row r="478" spans="1:8">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>65.5</v>
       </c>
@@ -11209,7 +11266,7 @@
         <v>2.3740000000000001</v>
       </c>
     </row>
-    <row r="479" spans="1:8">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>69.599999999999994</v>
       </c>
@@ -11235,7 +11292,7 @@
         <v>2.266</v>
       </c>
     </row>
-    <row r="480" spans="1:8">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>73.7</v>
       </c>
@@ -11261,7 +11318,7 @@
         <v>2.117</v>
       </c>
     </row>
-    <row r="481" spans="1:8">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>77.8</v>
       </c>
@@ -11287,7 +11344,7 @@
         <v>1.9410000000000001</v>
       </c>
     </row>
-    <row r="482" spans="1:8">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>81.900000000000006</v>
       </c>
@@ -11313,7 +11370,7 @@
         <v>1.762</v>
       </c>
     </row>
-    <row r="483" spans="1:8">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>86</v>
       </c>
@@ -11339,7 +11396,7 @@
         <v>1.579</v>
       </c>
     </row>
-    <row r="484" spans="1:8">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>90.1</v>
       </c>
@@ -11365,7 +11422,7 @@
         <v>1.393</v>
       </c>
     </row>
-    <row r="485" spans="1:8">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>94.2</v>
       </c>
@@ -11391,7 +11448,7 @@
         <v>1.2030000000000001</v>
       </c>
     </row>
-    <row r="486" spans="1:8">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>98.3</v>
       </c>
@@ -11417,7 +11474,7 @@
         <v>1.0089999999999999</v>
       </c>
     </row>
-    <row r="487" spans="1:8">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>102.4</v>
       </c>
@@ -11443,7 +11500,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="488" spans="1:8">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>106.5</v>
       </c>
@@ -11469,7 +11526,7 @@
         <v>0.61199999999999999</v>
       </c>
     </row>
-    <row r="489" spans="1:8">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>110.5</v>
       </c>
@@ -11495,7 +11552,7 @@
         <v>0.41299999999999998</v>
       </c>
     </row>
-    <row r="490" spans="1:8">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>114.6</v>
       </c>
@@ -11521,7 +11578,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="491" spans="1:8">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>118.7</v>
       </c>
@@ -11547,7 +11604,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="495" spans="1:8">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>30</v>
       </c>
@@ -11561,7 +11618,7 @@
         <v>13999</v>
       </c>
     </row>
-    <row r="497" spans="1:8">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>26</v>
       </c>
@@ -11587,7 +11644,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="498" spans="1:8">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>40</v>
       </c>
@@ -11607,7 +11664,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="499" spans="1:8">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>0</v>
       </c>
@@ -11633,7 +11690,7 @@
         <v>2.9860000000000002</v>
       </c>
     </row>
-    <row r="500" spans="1:8">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>4.4000000000000004</v>
       </c>
@@ -11659,7 +11716,7 @@
         <v>2.988</v>
       </c>
     </row>
-    <row r="501" spans="1:8">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>8.8000000000000007</v>
       </c>
@@ -11685,7 +11742,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="502" spans="1:8">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>13.2</v>
       </c>
@@ -11711,7 +11768,7 @@
         <v>2.992</v>
       </c>
     </row>
-    <row r="503" spans="1:8">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>17.600000000000001</v>
       </c>
@@ -11737,7 +11794,7 @@
         <v>2.9940000000000002</v>
       </c>
     </row>
-    <row r="504" spans="1:8">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>22</v>
       </c>
@@ -11763,7 +11820,7 @@
         <v>2.9950000000000001</v>
       </c>
     </row>
-    <row r="505" spans="1:8">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>26.4</v>
       </c>
@@ -11789,7 +11846,7 @@
         <v>2.996</v>
       </c>
     </row>
-    <row r="506" spans="1:8">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>30.8</v>
       </c>
@@ -11815,7 +11872,7 @@
         <v>2.9950000000000001</v>
       </c>
     </row>
-    <row r="507" spans="1:8">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>35.200000000000003</v>
       </c>
@@ -11841,7 +11898,7 @@
         <v>2.9940000000000002</v>
       </c>
     </row>
-    <row r="508" spans="1:8">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>39.6</v>
       </c>
@@ -11867,7 +11924,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="509" spans="1:8">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>44</v>
       </c>
@@ -11893,7 +11950,7 @@
         <v>2.9830000000000001</v>
       </c>
     </row>
-    <row r="510" spans="1:8">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>48.4</v>
       </c>
@@ -11919,7 +11976,7 @@
         <v>2.9729999999999999</v>
       </c>
     </row>
-    <row r="511" spans="1:8">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>52.9</v>
       </c>
@@ -11945,7 +12002,7 @@
         <v>2.9569999999999999</v>
       </c>
     </row>
-    <row r="512" spans="1:8">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>57.3</v>
       </c>
@@ -11971,7 +12028,7 @@
         <v>2.9350000000000001</v>
       </c>
     </row>
-    <row r="513" spans="1:8">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>61.7</v>
       </c>
@@ -11997,7 +12054,7 @@
         <v>2.9039999999999999</v>
       </c>
     </row>
-    <row r="514" spans="1:8">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>66.099999999999994</v>
       </c>
@@ -12023,7 +12080,7 @@
         <v>2.8540000000000001</v>
       </c>
     </row>
-    <row r="515" spans="1:8">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>70.5</v>
       </c>
@@ -12049,7 +12106,7 @@
         <v>2.7719999999999998</v>
       </c>
     </row>
-    <row r="516" spans="1:8">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>74.900000000000006</v>
       </c>
@@ -12075,7 +12132,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="517" spans="1:8">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>79.3</v>
       </c>
@@ -12101,7 +12158,7 @@
         <v>2.4809999999999999</v>
       </c>
     </row>
-    <row r="518" spans="1:8">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>83.7</v>
       </c>
@@ -12127,7 +12184,7 @@
         <v>2.2749999999999999</v>
       </c>
     </row>
-    <row r="519" spans="1:8">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>88.1</v>
       </c>
@@ -12153,7 +12210,7 @@
         <v>2.0659999999999998</v>
       </c>
     </row>
-    <row r="520" spans="1:8">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>92.5</v>
       </c>
@@ -12179,7 +12236,7 @@
         <v>1.8520000000000001</v>
       </c>
     </row>
-    <row r="521" spans="1:8">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>96.9</v>
       </c>
@@ -12205,7 +12262,7 @@
         <v>1.635</v>
       </c>
     </row>
-    <row r="522" spans="1:8">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>101.3</v>
       </c>
@@ -12231,7 +12288,7 @@
         <v>1.4139999999999999</v>
       </c>
     </row>
-    <row r="523" spans="1:8">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>105.7</v>
       </c>
@@ -12257,7 +12314,7 @@
         <v>1.1870000000000001</v>
       </c>
     </row>
-    <row r="524" spans="1:8">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>110.1</v>
       </c>
@@ -12283,7 +12340,7 @@
         <v>0.95699999999999996</v>
       </c>
     </row>
-    <row r="525" spans="1:8">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>114.5</v>
       </c>
@@ -12309,7 +12366,7 @@
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="526" spans="1:8">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>118.9</v>
       </c>
@@ -12335,7 +12392,7 @@
         <v>0.48299999999999998</v>
       </c>
     </row>
-    <row r="527" spans="1:8">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>123.3</v>
       </c>
@@ -12361,7 +12418,7 @@
         <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="528" spans="1:8">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>127.7</v>
       </c>
@@ -12387,7 +12444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:8">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>30</v>
       </c>
@@ -12401,7 +12458,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="534" spans="1:8">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>26</v>
       </c>
@@ -12427,7 +12484,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="535" spans="1:8">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>40</v>
       </c>
@@ -12447,7 +12504,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="536" spans="1:8">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>0</v>
       </c>
@@ -12473,7 +12530,7 @@
         <v>3.4249999999999998</v>
       </c>
     </row>
-    <row r="537" spans="1:8">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>4.7</v>
       </c>
@@ -12499,7 +12556,7 @@
         <v>3.427</v>
       </c>
     </row>
-    <row r="538" spans="1:8">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>9.4</v>
       </c>
@@ -12525,7 +12582,7 @@
         <v>3.43</v>
       </c>
     </row>
-    <row r="539" spans="1:8">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>14.2</v>
       </c>
@@ -12551,7 +12608,7 @@
         <v>3.4329999999999998</v>
       </c>
     </row>
-    <row r="540" spans="1:8">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>18.899999999999999</v>
       </c>
@@ -12577,7 +12634,7 @@
         <v>3.4350000000000001</v>
       </c>
     </row>
-    <row r="541" spans="1:8">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>23.6</v>
       </c>
@@ -12603,7 +12660,7 @@
         <v>3.4369999999999998</v>
       </c>
     </row>
-    <row r="542" spans="1:8">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>28.3</v>
       </c>
@@ -12629,7 +12686,7 @@
         <v>3.4380000000000002</v>
       </c>
     </row>
-    <row r="543" spans="1:8">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>33</v>
       </c>
@@ -12655,7 +12712,7 @@
         <v>3.4390000000000001</v>
       </c>
     </row>
-    <row r="544" spans="1:8">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>37.700000000000003</v>
       </c>
@@ -12681,7 +12738,7 @@
         <v>3.4380000000000002</v>
       </c>
     </row>
-    <row r="545" spans="1:8">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>42.5</v>
       </c>
@@ -12707,7 +12764,7 @@
         <v>3.4350000000000001</v>
       </c>
     </row>
-    <row r="546" spans="1:8">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>47.2</v>
       </c>
@@ -12733,7 +12790,7 @@
         <v>3.4289999999999998</v>
       </c>
     </row>
-    <row r="547" spans="1:8">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>51.9</v>
       </c>
@@ -12759,7 +12816,7 @@
         <v>3.419</v>
       </c>
     </row>
-    <row r="548" spans="1:8">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>56.6</v>
       </c>
@@ -12785,7 +12842,7 @@
         <v>3.403</v>
       </c>
     </row>
-    <row r="549" spans="1:8">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>61.3</v>
       </c>
@@ -12811,7 +12868,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="550" spans="1:8">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>66</v>
       </c>
@@ -12837,7 +12894,7 @@
         <v>3.347</v>
       </c>
     </row>
-    <row r="551" spans="1:8">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>70.8</v>
       </c>
@@ -12863,7 +12920,7 @@
         <v>3.294</v>
       </c>
     </row>
-    <row r="552" spans="1:8">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>75.5</v>
       </c>
@@ -12889,7 +12946,7 @@
         <v>3.2040000000000002</v>
       </c>
     </row>
-    <row r="553" spans="1:8">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>80.2</v>
       </c>
@@ -12915,7 +12972,7 @@
         <v>3.0670000000000002</v>
       </c>
     </row>
-    <row r="554" spans="1:8">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>84.9</v>
       </c>
@@ -12941,7 +12998,7 @@
         <v>2.8780000000000001</v>
       </c>
     </row>
-    <row r="555" spans="1:8">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>89.6</v>
       </c>
@@ -12967,7 +13024,7 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="556" spans="1:8">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>94.3</v>
       </c>
@@ -12993,7 +13050,7 @@
         <v>2.3969999999999998</v>
       </c>
     </row>
-    <row r="557" spans="1:8">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>99.1</v>
       </c>
@@ -13019,7 +13076,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="558" spans="1:8">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>103.8</v>
       </c>
@@ -13045,7 +13102,7 @@
         <v>1.897</v>
       </c>
     </row>
-    <row r="559" spans="1:8">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>108.5</v>
       </c>
@@ -13071,7 +13128,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="560" spans="1:8">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>113.2</v>
       </c>
@@ -13097,7 +13154,7 @@
         <v>1.379</v>
       </c>
     </row>
-    <row r="561" spans="1:8">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>117.9</v>
       </c>
@@ -13123,7 +13180,7 @@
         <v>1.1120000000000001</v>
       </c>
     </row>
-    <row r="562" spans="1:8">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>122.6</v>
       </c>
@@ -13149,7 +13206,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="563" spans="1:8">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>127.4</v>
       </c>
@@ -13175,7 +13232,7 @@
         <v>0.56299999999999994</v>
       </c>
     </row>
-    <row r="564" spans="1:8">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>132.1</v>
       </c>
@@ -13201,7 +13258,7 @@
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="565" spans="1:8">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>136.80000000000001</v>
       </c>
@@ -13227,7 +13284,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="569" spans="1:8">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>30</v>
       </c>
@@ -13241,7 +13298,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="571" spans="1:8">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>26</v>
       </c>
@@ -13267,7 +13324,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="572" spans="1:8">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>40</v>
       </c>
@@ -13287,7 +13344,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="573" spans="1:8">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>0</v>
       </c>
@@ -13313,7 +13370,7 @@
         <v>3.9140000000000001</v>
       </c>
     </row>
-    <row r="574" spans="1:8">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>5</v>
       </c>
@@ -13339,7 +13396,7 @@
         <v>3.9180000000000001</v>
       </c>
     </row>
-    <row r="575" spans="1:8">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>10.1</v>
       </c>
@@ -13365,7 +13422,7 @@
         <v>3.9220000000000002</v>
       </c>
     </row>
-    <row r="576" spans="1:8">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>15.1</v>
       </c>
@@ -13391,7 +13448,7 @@
         <v>3.927</v>
       </c>
     </row>
-    <row r="577" spans="1:8">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>20.100000000000001</v>
       </c>
@@ -13417,7 +13474,7 @@
         <v>3.931</v>
       </c>
     </row>
-    <row r="578" spans="1:8">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>25.2</v>
       </c>
@@ -13443,7 +13500,7 @@
         <v>3.9350000000000001</v>
       </c>
     </row>
-    <row r="579" spans="1:8">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>30.2</v>
       </c>
@@ -13469,7 +13526,7 @@
         <v>3.9380000000000002</v>
       </c>
     </row>
-    <row r="580" spans="1:8">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>35.200000000000003</v>
       </c>
@@ -13495,7 +13552,7 @@
         <v>3.9409999999999998</v>
       </c>
     </row>
-    <row r="581" spans="1:8">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>40.299999999999997</v>
       </c>
@@ -13521,7 +13578,7 @@
         <v>3.9420000000000002</v>
       </c>
     </row>
-    <row r="582" spans="1:8">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>45.3</v>
       </c>
@@ -13547,7 +13604,7 @@
         <v>3.94</v>
       </c>
     </row>
-    <row r="583" spans="1:8">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>50.3</v>
       </c>
@@ -13573,7 +13630,7 @@
         <v>3.9350000000000001</v>
       </c>
     </row>
-    <row r="584" spans="1:8">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>55.3</v>
       </c>
@@ -13599,7 +13656,7 @@
         <v>3.9249999999999998</v>
       </c>
     </row>
-    <row r="585" spans="1:8">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>60.4</v>
       </c>
@@ -13625,7 +13682,7 @@
         <v>3.9089999999999998</v>
       </c>
     </row>
-    <row r="586" spans="1:8">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>65.400000000000006</v>
       </c>
@@ -13651,7 +13708,7 @@
         <v>3.883</v>
       </c>
     </row>
-    <row r="587" spans="1:8">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>70.400000000000006</v>
       </c>
@@ -13677,7 +13734,7 @@
         <v>3.8450000000000002</v>
       </c>
     </row>
-    <row r="588" spans="1:8">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>75.5</v>
       </c>
@@ -13703,7 +13760,7 @@
         <v>3.7850000000000001</v>
       </c>
     </row>
-    <row r="589" spans="1:8">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>80.5</v>
       </c>
@@ -13729,7 +13786,7 @@
         <v>3.6829999999999998</v>
       </c>
     </row>
-    <row r="590" spans="1:8">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>85.5</v>
       </c>
@@ -13755,7 +13812,7 @@
         <v>3.5270000000000001</v>
       </c>
     </row>
-    <row r="591" spans="1:8">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>90.6</v>
       </c>
@@ -13781,7 +13838,7 @@
         <v>3.3140000000000001</v>
       </c>
     </row>
-    <row r="592" spans="1:8">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>95.6</v>
       </c>
@@ -13807,7 +13864,7 @@
         <v>3.0379999999999998</v>
       </c>
     </row>
-    <row r="593" spans="1:8">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>100.6</v>
       </c>
@@ -13833,7 +13890,7 @@
         <v>2.758</v>
       </c>
     </row>
-    <row r="594" spans="1:8">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>105.7</v>
       </c>
@@ -13859,7 +13916,7 @@
         <v>2.472</v>
       </c>
     </row>
-    <row r="595" spans="1:8">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>110.7</v>
       </c>
@@ -13885,7 +13942,7 @@
         <v>2.1819999999999999</v>
       </c>
     </row>
-    <row r="596" spans="1:8">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>115.7</v>
       </c>
@@ -13911,7 +13968,7 @@
         <v>1.887</v>
       </c>
     </row>
-    <row r="597" spans="1:8">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>120.8</v>
       </c>
@@ -13937,7 +13994,7 @@
         <v>1.587</v>
       </c>
     </row>
-    <row r="598" spans="1:8">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>125.8</v>
       </c>
@@ -13963,7 +14020,7 @@
         <v>1.278</v>
       </c>
     </row>
-    <row r="599" spans="1:8">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>130.80000000000001</v>
       </c>
@@ -13989,7 +14046,7 @@
         <v>0.96499999999999997</v>
       </c>
     </row>
-    <row r="600" spans="1:8">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>135.9</v>
       </c>
@@ -14015,7 +14072,7 @@
         <v>0.64700000000000002</v>
       </c>
     </row>
-    <row r="601" spans="1:8">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>140.9</v>
       </c>
@@ -14041,7 +14098,7 @@
         <v>0.32600000000000001</v>
       </c>
     </row>
-    <row r="602" spans="1:8">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>145.9</v>
       </c>
@@ -14067,7 +14124,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="606" spans="1:8">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>30</v>
       </c>
@@ -14081,7 +14138,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="608" spans="1:8">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>26</v>
       </c>
@@ -14107,7 +14164,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="609" spans="1:8">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>40</v>
       </c>
@@ -14127,7 +14184,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="610" spans="1:8">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>0</v>
       </c>
@@ -14153,7 +14210,7 @@
         <v>4.4880000000000004</v>
       </c>
     </row>
-    <row r="611" spans="1:8">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>5.3</v>
       </c>
@@ -14179,7 +14236,7 @@
         <v>4.4950000000000001</v>
       </c>
     </row>
-    <row r="612" spans="1:8">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>10.7</v>
       </c>
@@ -14205,7 +14262,7 @@
         <v>4.5010000000000003</v>
       </c>
     </row>
-    <row r="613" spans="1:8">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>16</v>
       </c>
@@ -14231,7 +14288,7 @@
         <v>4.5069999999999997</v>
       </c>
     </row>
-    <row r="614" spans="1:8">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>21.4</v>
       </c>
@@ -14257,7 +14314,7 @@
         <v>4.5129999999999999</v>
       </c>
     </row>
-    <row r="615" spans="1:8">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>26.7</v>
       </c>
@@ -14283,7 +14340,7 @@
         <v>4.5179999999999998</v>
       </c>
     </row>
-    <row r="616" spans="1:8">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>32.1</v>
       </c>
@@ -14309,7 +14366,7 @@
         <v>4.5209999999999999</v>
       </c>
     </row>
-    <row r="617" spans="1:8">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>37.4</v>
       </c>
@@ -14335,7 +14392,7 @@
         <v>4.5229999999999997</v>
       </c>
     </row>
-    <row r="618" spans="1:8">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>42.7</v>
       </c>
@@ -14361,7 +14418,7 @@
         <v>4.5229999999999997</v>
       </c>
     </row>
-    <row r="619" spans="1:8">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>48.1</v>
       </c>
@@ -14387,7 +14444,7 @@
         <v>4.5190000000000001</v>
       </c>
     </row>
-    <row r="620" spans="1:8">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>53.4</v>
       </c>
@@ -14413,7 +14470,7 @@
         <v>4.5119999999999996</v>
       </c>
     </row>
-    <row r="621" spans="1:8">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>58.8</v>
       </c>
@@ -14439,7 +14496,7 @@
         <v>4.4969999999999999</v>
       </c>
     </row>
-    <row r="622" spans="1:8">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>64.099999999999994</v>
       </c>
@@ -14465,7 +14522,7 @@
         <v>4.4749999999999996</v>
       </c>
     </row>
-    <row r="623" spans="1:8">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>69.5</v>
       </c>
@@ -14491,7 +14548,7 @@
         <v>4.4420000000000002</v>
       </c>
     </row>
-    <row r="624" spans="1:8">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>74.8</v>
       </c>
@@ -14517,7 +14574,7 @@
         <v>4.3949999999999996</v>
       </c>
     </row>
-    <row r="625" spans="1:8">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>80.099999999999994</v>
       </c>
@@ -14543,7 +14600,7 @@
         <v>4.3250000000000002</v>
       </c>
     </row>
-    <row r="626" spans="1:8">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>85.5</v>
       </c>
@@ -14569,7 +14626,7 @@
         <v>4.2089999999999996</v>
       </c>
     </row>
-    <row r="627" spans="1:8">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>90.8</v>
       </c>
@@ -14595,7 +14652,7 @@
         <v>4.032</v>
       </c>
     </row>
-    <row r="628" spans="1:8">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>96.2</v>
       </c>
@@ -14621,7 +14678,7 @@
         <v>3.794</v>
       </c>
     </row>
-    <row r="629" spans="1:8">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>101.5</v>
       </c>
@@ -14647,7 +14704,7 @@
         <v>3.4780000000000002</v>
       </c>
     </row>
-    <row r="630" spans="1:8">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>106.9</v>
       </c>
@@ -14673,7 +14730,7 @@
         <v>3.1579999999999999</v>
       </c>
     </row>
-    <row r="631" spans="1:8">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>112.2</v>
       </c>
@@ -14699,7 +14756,7 @@
         <v>2.8319999999999999</v>
       </c>
     </row>
-    <row r="632" spans="1:8">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>117.5</v>
       </c>
@@ -14725,7 +14782,7 @@
         <v>2.5009999999999999</v>
       </c>
     </row>
-    <row r="633" spans="1:8">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>122.9</v>
       </c>
@@ -14751,7 +14808,7 @@
         <v>2.1640000000000001</v>
       </c>
     </row>
-    <row r="634" spans="1:8">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>128.19999999999999</v>
       </c>
@@ -14777,7 +14834,7 @@
         <v>1.8220000000000001</v>
       </c>
     </row>
-    <row r="635" spans="1:8">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>133.6</v>
       </c>
@@ -14803,7 +14860,7 @@
         <v>1.468</v>
       </c>
     </row>
-    <row r="636" spans="1:8">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>138.9</v>
       </c>
@@ -14829,7 +14886,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="637" spans="1:8">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>144.30000000000001</v>
       </c>
@@ -14855,7 +14912,7 @@
         <v>0.747</v>
       </c>
     </row>
-    <row r="638" spans="1:8">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>149.6</v>
       </c>
@@ -14881,7 +14938,7 @@
         <v>0.376</v>
       </c>
     </row>
-    <row r="639" spans="1:8">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>154.9</v>
       </c>
@@ -14907,7 +14964,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="643" spans="1:8">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>30</v>
       </c>
@@ -14921,7 +14978,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="645" spans="1:8">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>26</v>
       </c>
@@ -14947,7 +15004,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="646" spans="1:8">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>40</v>
       </c>
@@ -14967,7 +15024,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="647" spans="1:8">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>0</v>
       </c>
@@ -14993,7 +15050,7 @@
         <v>5.1079999999999997</v>
       </c>
     </row>
-    <row r="648" spans="1:8">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>5.7</v>
       </c>
@@ -15019,7 +15076,7 @@
         <v>5.1189999999999998</v>
       </c>
     </row>
-    <row r="649" spans="1:8">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>11.3</v>
       </c>
@@ -15045,7 +15102,7 @@
         <v>5.1280000000000001</v>
       </c>
     </row>
-    <row r="650" spans="1:8">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>17</v>
       </c>
@@ -15071,7 +15128,7 @@
         <v>5.1369999999999996</v>
       </c>
     </row>
-    <row r="651" spans="1:8">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>22.6</v>
       </c>
@@ -15097,7 +15154,7 @@
         <v>5.1449999999999996</v>
       </c>
     </row>
-    <row r="652" spans="1:8">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>28.3</v>
       </c>
@@ -15123,7 +15180,7 @@
         <v>5.1509999999999998</v>
       </c>
     </row>
-    <row r="653" spans="1:8">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>33.9</v>
       </c>
@@ -15149,7 +15206,7 @@
         <v>5.1550000000000002</v>
       </c>
     </row>
-    <row r="654" spans="1:8">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>39.6</v>
       </c>
@@ -15175,7 +15232,7 @@
         <v>5.157</v>
       </c>
     </row>
-    <row r="655" spans="1:8">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>45.2</v>
       </c>
@@ -15201,7 +15258,7 @@
         <v>5.1550000000000002</v>
       </c>
     </row>
-    <row r="656" spans="1:8">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>50.9</v>
       </c>
@@ -15227,7 +15284,7 @@
         <v>5.15</v>
       </c>
     </row>
-    <row r="657" spans="1:8">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>56.5</v>
       </c>
@@ -15253,7 +15310,7 @@
         <v>5.1379999999999999</v>
       </c>
     </row>
-    <row r="658" spans="1:8">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>62.2</v>
       </c>
@@ -15279,7 +15336,7 @@
         <v>5.12</v>
       </c>
     </row>
-    <row r="659" spans="1:8">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>67.8</v>
       </c>
@@ -15305,7 +15362,7 @@
         <v>5.0910000000000002</v>
       </c>
     </row>
-    <row r="660" spans="1:8">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>73.5</v>
       </c>
@@ -15331,7 +15388,7 @@
         <v>5.0510000000000002</v>
       </c>
     </row>
-    <row r="661" spans="1:8">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>79.099999999999994</v>
       </c>
@@ -15357,7 +15414,7 @@
         <v>4.9939999999999998</v>
       </c>
     </row>
-    <row r="662" spans="1:8">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>84.8</v>
       </c>
@@ -15383,7 +15440,7 @@
         <v>4.9130000000000003</v>
       </c>
     </row>
-    <row r="663" spans="1:8">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>90.4</v>
       </c>
@@ -15409,7 +15466,7 @@
         <v>4.7830000000000004</v>
       </c>
     </row>
-    <row r="664" spans="1:8">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>96.1</v>
       </c>
@@ -15435,7 +15492,7 @@
         <v>4.585</v>
       </c>
     </row>
-    <row r="665" spans="1:8">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>101.8</v>
       </c>
@@ -15461,7 +15518,7 @@
         <v>4.319</v>
       </c>
     </row>
-    <row r="666" spans="1:8">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>107.4</v>
       </c>
@@ -15487,7 +15544,7 @@
         <v>3.9630000000000001</v>
       </c>
     </row>
-    <row r="667" spans="1:8">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>113.1</v>
       </c>
@@ -15513,7 +15570,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="668" spans="1:8">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>118.7</v>
       </c>
@@ -15539,7 +15596,7 @@
         <v>3.2320000000000002</v>
       </c>
     </row>
-    <row r="669" spans="1:8">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>124.4</v>
       </c>
@@ -15565,7 +15622,7 @@
         <v>2.855</v>
       </c>
     </row>
-    <row r="670" spans="1:8">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>130</v>
       </c>
@@ -15591,7 +15648,7 @@
         <v>2.4710000000000001</v>
       </c>
     </row>
-    <row r="671" spans="1:8">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>135.69999999999999</v>
       </c>
@@ -15617,7 +15674,7 @@
         <v>2.077</v>
       </c>
     </row>
-    <row r="672" spans="1:8">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>141.30000000000001</v>
       </c>
@@ -15643,7 +15700,7 @@
         <v>1.677</v>
       </c>
     </row>
-    <row r="673" spans="1:8">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>147</v>
       </c>
@@ -15669,7 +15726,7 @@
         <v>1.2709999999999999</v>
       </c>
     </row>
-    <row r="674" spans="1:8">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>152.6</v>
       </c>
@@ -15695,7 +15752,7 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="675" spans="1:8">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>158.30000000000001</v>
       </c>
@@ -15721,7 +15778,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="676" spans="1:8">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>163.9</v>
       </c>
@@ -15747,7 +15804,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="680" spans="1:8">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>30</v>
       </c>
@@ -15761,7 +15818,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="682" spans="1:8">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>26</v>
       </c>
@@ -15787,7 +15844,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="683" spans="1:8">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>40</v>
       </c>
@@ -15807,7 +15864,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="684" spans="1:8">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>0</v>
       </c>
@@ -15833,7 +15890,7 @@
         <v>5.7770000000000001</v>
       </c>
     </row>
-    <row r="685" spans="1:8">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>6</v>
       </c>
@@ -15859,7 +15916,7 @@
         <v>5.7910000000000004</v>
       </c>
     </row>
-    <row r="686" spans="1:8">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>11.9</v>
       </c>
@@ -15885,7 +15942,7 @@
         <v>5.8049999999999997</v>
       </c>
     </row>
-    <row r="687" spans="1:8">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>17.899999999999999</v>
       </c>
@@ -15911,7 +15968,7 @@
         <v>5.8159999999999998</v>
       </c>
     </row>
-    <row r="688" spans="1:8">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>23.9</v>
       </c>
@@ -15937,7 +15994,7 @@
         <v>5.8259999999999996</v>
       </c>
     </row>
-    <row r="689" spans="1:8">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>29.8</v>
       </c>
@@ -15963,7 +16020,7 @@
         <v>5.8339999999999996</v>
       </c>
     </row>
-    <row r="690" spans="1:8">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>35.799999999999997</v>
       </c>
@@ -15989,7 +16046,7 @@
         <v>5.8390000000000004</v>
       </c>
     </row>
-    <row r="691" spans="1:8">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>41.8</v>
       </c>
@@ -16015,7 +16072,7 @@
         <v>5.84</v>
       </c>
     </row>
-    <row r="692" spans="1:8">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>47.7</v>
       </c>
@@ -16041,7 +16098,7 @@
         <v>5.8369999999999997</v>
       </c>
     </row>
-    <row r="693" spans="1:8">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>53.7</v>
       </c>
@@ -16067,7 +16124,7 @@
         <v>5.8289999999999997</v>
       </c>
     </row>
-    <row r="694" spans="1:8">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>59.7</v>
       </c>
@@ -16093,7 +16150,7 @@
         <v>5.8140000000000001</v>
       </c>
     </row>
-    <row r="695" spans="1:8">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>65.599999999999994</v>
       </c>
@@ -16119,7 +16176,7 @@
         <v>5.79</v>
       </c>
     </row>
-    <row r="696" spans="1:8">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>71.599999999999994</v>
       </c>
@@ -16145,7 +16202,7 @@
         <v>5.7549999999999999</v>
       </c>
     </row>
-    <row r="697" spans="1:8">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>77.599999999999994</v>
       </c>
@@ -16171,7 +16228,7 @@
         <v>5.7060000000000004</v>
       </c>
     </row>
-    <row r="698" spans="1:8">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>83.5</v>
       </c>
@@ -16197,7 +16254,7 @@
         <v>5.6390000000000002</v>
       </c>
     </row>
-    <row r="699" spans="1:8">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>89.5</v>
       </c>
@@ -16223,7 +16280,7 @@
         <v>5.5460000000000003</v>
       </c>
     </row>
-    <row r="700" spans="1:8">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>95.5</v>
       </c>
@@ -16249,7 +16306,7 @@
         <v>5.4039999999999999</v>
       </c>
     </row>
-    <row r="701" spans="1:8">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>101.4</v>
       </c>
@@ -16275,7 +16332,7 @@
         <v>5.1870000000000003</v>
       </c>
     </row>
-    <row r="702" spans="1:8">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>107.4</v>
       </c>
@@ -16301,7 +16358,7 @@
         <v>4.8899999999999997</v>
       </c>
     </row>
-    <row r="703" spans="1:8">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>113.4</v>
       </c>
@@ -16327,7 +16384,7 @@
         <v>4.4930000000000003</v>
       </c>
     </row>
-    <row r="704" spans="1:8">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>119.3</v>
       </c>
@@ -16353,7 +16410,7 @@
         <v>4.0819999999999999</v>
       </c>
     </row>
-    <row r="705" spans="1:8">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>125.3</v>
       </c>
@@ -16379,7 +16436,7 @@
         <v>3.665</v>
       </c>
     </row>
-    <row r="706" spans="1:8">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>131.30000000000001</v>
       </c>
@@ -16405,7 +16462,7 @@
         <v>3.2389999999999999</v>
       </c>
     </row>
-    <row r="707" spans="1:8">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>137.19999999999999</v>
       </c>
@@ -16431,7 +16488,7 @@
         <v>2.8029999999999999</v>
       </c>
     </row>
-    <row r="708" spans="1:8">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>143.19999999999999</v>
       </c>
@@ -16457,7 +16514,7 @@
         <v>2.3570000000000002</v>
       </c>
     </row>
-    <row r="709" spans="1:8">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>149.19999999999999</v>
       </c>
@@ -16483,7 +16540,7 @@
         <v>1.903</v>
       </c>
     </row>
-    <row r="710" spans="1:8">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>155.1</v>
       </c>
@@ -16509,7 +16566,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="711" spans="1:8">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>161.1</v>
       </c>
@@ -16535,7 +16592,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="712" spans="1:8">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>167.1</v>
       </c>
@@ -16561,7 +16618,7 @@
         <v>0.48699999999999999</v>
       </c>
     </row>
-    <row r="713" spans="1:8">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>173</v>
       </c>
@@ -16587,7 +16644,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="717" spans="1:8">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>30</v>
       </c>
@@ -16601,7 +16658,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="719" spans="1:8">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>26</v>
       </c>
@@ -16627,7 +16684,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="720" spans="1:8">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>40</v>
       </c>
@@ -16647,7 +16704,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="721" spans="1:8">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>0</v>
       </c>
@@ -16673,7 +16730,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="722" spans="1:8">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>6.3</v>
       </c>
@@ -16699,7 +16756,7 @@
         <v>6.5190000000000001</v>
       </c>
     </row>
-    <row r="723" spans="1:8">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>12.6</v>
       </c>
@@ -16725,7 +16782,7 @@
         <v>6.5369999999999999</v>
       </c>
     </row>
-    <row r="724" spans="1:8">
+    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>18.8</v>
       </c>
@@ -16751,7 +16808,7 @@
         <v>6.5529999999999999</v>
       </c>
     </row>
-    <row r="725" spans="1:8">
+    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>25.1</v>
       </c>
@@ -16777,7 +16834,7 @@
         <v>6.5670000000000002</v>
       </c>
     </row>
-    <row r="726" spans="1:8">
+    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>31.4</v>
       </c>
@@ -16803,7 +16860,7 @@
         <v>6.577</v>
       </c>
     </row>
-    <row r="727" spans="1:8">
+    <row r="727" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>37.700000000000003</v>
       </c>
@@ -16829,7 +16886,7 @@
         <v>6.5839999999999996</v>
       </c>
     </row>
-    <row r="728" spans="1:8">
+    <row r="728" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>43.9</v>
       </c>
@@ -16855,7 +16912,7 @@
         <v>6.585</v>
       </c>
     </row>
-    <row r="729" spans="1:8">
+    <row r="729" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>50.2</v>
       </c>
@@ -16881,7 +16938,7 @@
         <v>6.58</v>
       </c>
     </row>
-    <row r="730" spans="1:8">
+    <row r="730" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>56.5</v>
       </c>
@@ -16907,7 +16964,7 @@
         <v>6.569</v>
       </c>
     </row>
-    <row r="731" spans="1:8">
+    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>62.8</v>
       </c>
@@ -16933,7 +16990,7 @@
         <v>6.5490000000000004</v>
       </c>
     </row>
-    <row r="732" spans="1:8">
+    <row r="732" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>69</v>
       </c>
@@ -16959,7 +17016,7 @@
         <v>6.52</v>
       </c>
     </row>
-    <row r="733" spans="1:8">
+    <row r="733" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>75.3</v>
       </c>
@@ -16985,7 +17042,7 @@
         <v>6.4790000000000001</v>
       </c>
     </row>
-    <row r="734" spans="1:8">
+    <row r="734" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>81.599999999999994</v>
       </c>
@@ -17011,7 +17068,7 @@
         <v>6.423</v>
       </c>
     </row>
-    <row r="735" spans="1:8">
+    <row r="735" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>87.9</v>
       </c>
@@ -17037,7 +17094,7 @@
         <v>6.3479999999999999</v>
       </c>
     </row>
-    <row r="736" spans="1:8">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>94.1</v>
       </c>
@@ -17063,7 +17120,7 @@
         <v>6.2430000000000003</v>
       </c>
     </row>
-    <row r="737" spans="1:8">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>100.4</v>
       </c>
@@ -17089,7 +17146,7 @@
         <v>6.0890000000000004</v>
       </c>
     </row>
-    <row r="738" spans="1:8">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>106.7</v>
       </c>
@@ -17115,7 +17172,7 @@
         <v>5.8540000000000001</v>
       </c>
     </row>
-    <row r="739" spans="1:8">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>113</v>
       </c>
@@ -17141,7 +17198,7 @@
         <v>5.5309999999999997</v>
       </c>
     </row>
-    <row r="740" spans="1:8">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>119.2</v>
       </c>
@@ -17167,7 +17224,7 @@
         <v>5.09</v>
       </c>
     </row>
-    <row r="741" spans="1:8">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>125.5</v>
       </c>
@@ -17193,7 +17250,7 @@
         <v>4.6230000000000002</v>
       </c>
     </row>
-    <row r="742" spans="1:8">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>131.80000000000001</v>
       </c>
@@ -17219,7 +17276,7 @@
         <v>4.1529999999999996</v>
       </c>
     </row>
-    <row r="743" spans="1:8">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>138.1</v>
       </c>
@@ -17245,7 +17302,7 @@
         <v>3.6709999999999998</v>
       </c>
     </row>
-    <row r="744" spans="1:8">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>144.30000000000001</v>
       </c>
@@ -17271,7 +17328,7 @@
         <v>3.1789999999999998</v>
       </c>
     </row>
-    <row r="745" spans="1:8">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>150.6</v>
       </c>
@@ -17297,7 +17354,7 @@
         <v>2.677</v>
       </c>
     </row>
-    <row r="746" spans="1:8">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>156.9</v>
       </c>
@@ -17323,7 +17380,7 @@
         <v>2.1659999999999999</v>
       </c>
     </row>
-    <row r="747" spans="1:8">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>163.19999999999999</v>
       </c>
@@ -17349,7 +17406,7 @@
         <v>1.6459999999999999</v>
       </c>
     </row>
-    <row r="748" spans="1:8">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>169.4</v>
       </c>
@@ -17375,7 +17432,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="749" spans="1:8">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>175.7</v>
       </c>
@@ -17401,7 +17458,7 @@
         <v>0.56100000000000005</v>
       </c>
     </row>
-    <row r="750" spans="1:8">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>182</v>
       </c>
@@ -17427,7 +17484,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="754" spans="1:8">
+    <row r="754" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>30</v>
       </c>
@@ -17441,7 +17498,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="756" spans="1:8">
+    <row r="756" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>26</v>
       </c>
@@ -17467,7 +17524,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="757" spans="1:8">
+    <row r="757" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>40</v>
       </c>
@@ -17487,7 +17544,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="758" spans="1:8">
+    <row r="758" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>0</v>
       </c>
@@ -17513,7 +17570,7 @@
         <v>7.2850000000000001</v>
       </c>
     </row>
-    <row r="759" spans="1:8">
+    <row r="759" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>6.6</v>
       </c>
@@ -17539,7 +17596,7 @@
         <v>7.3090000000000002</v>
       </c>
     </row>
-    <row r="760" spans="1:8">
+    <row r="760" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>13.2</v>
       </c>
@@ -17565,7 +17622,7 @@
         <v>7.3319999999999999</v>
       </c>
     </row>
-    <row r="761" spans="1:8">
+    <row r="761" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>19.7</v>
       </c>
@@ -17591,7 +17648,7 @@
         <v>7.3540000000000001</v>
       </c>
     </row>
-    <row r="762" spans="1:8">
+    <row r="762" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>26.3</v>
       </c>
@@ -17617,7 +17674,7 @@
         <v>7.3730000000000002</v>
       </c>
     </row>
-    <row r="763" spans="1:8">
+    <row r="763" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>32.9</v>
       </c>
@@ -17643,7 +17700,7 @@
         <v>7.3879999999999999</v>
       </c>
     </row>
-    <row r="764" spans="1:8">
+    <row r="764" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A764">
         <v>39.5</v>
       </c>
@@ -17669,7 +17726,7 @@
         <v>7.3970000000000002</v>
       </c>
     </row>
-    <row r="765" spans="1:8">
+    <row r="765" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>46.1</v>
       </c>
@@ -17695,7 +17752,7 @@
         <v>7.399</v>
       </c>
     </row>
-    <row r="766" spans="1:8">
+    <row r="766" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>52.6</v>
       </c>
@@ -17721,7 +17778,7 @@
         <v>7.3949999999999996</v>
       </c>
     </row>
-    <row r="767" spans="1:8">
+    <row r="767" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>59.2</v>
       </c>
@@ -17747,7 +17804,7 @@
         <v>7.383</v>
       </c>
     </row>
-    <row r="768" spans="1:8">
+    <row r="768" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A768">
         <v>65.8</v>
       </c>
@@ -17773,7 +17830,7 @@
         <v>7.3620000000000001</v>
       </c>
     </row>
-    <row r="769" spans="1:8">
+    <row r="769" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>72.400000000000006</v>
       </c>
@@ -17799,7 +17856,7 @@
         <v>7.3289999999999997</v>
       </c>
     </row>
-    <row r="770" spans="1:8">
+    <row r="770" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A770">
         <v>78.900000000000006</v>
       </c>
@@ -17825,7 +17882,7 @@
         <v>7.2830000000000004</v>
       </c>
     </row>
-    <row r="771" spans="1:8">
+    <row r="771" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A771">
         <v>85.5</v>
       </c>
@@ -17851,7 +17908,7 @@
         <v>7.2210000000000001</v>
       </c>
     </row>
-    <row r="772" spans="1:8">
+    <row r="772" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A772">
         <v>92.1</v>
       </c>
@@ -17877,7 +17934,7 @@
         <v>7.1369999999999996</v>
       </c>
     </row>
-    <row r="773" spans="1:8">
+    <row r="773" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A773">
         <v>98.7</v>
       </c>
@@ -17903,7 +17960,7 @@
         <v>7.024</v>
       </c>
     </row>
-    <row r="774" spans="1:8">
+    <row r="774" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A774">
         <v>105.3</v>
       </c>
@@ -17929,7 +17986,7 @@
         <v>6.86</v>
       </c>
     </row>
-    <row r="775" spans="1:8">
+    <row r="775" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A775">
         <v>111.8</v>
       </c>
@@ -17955,7 +18012,7 @@
         <v>6.6150000000000002</v>
       </c>
     </row>
-    <row r="776" spans="1:8">
+    <row r="776" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A776">
         <v>118.4</v>
       </c>
@@ -17981,7 +18038,7 @@
         <v>6.26</v>
       </c>
     </row>
-    <row r="777" spans="1:8">
+    <row r="777" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A777">
         <v>125</v>
       </c>
@@ -18007,7 +18064,7 @@
         <v>5.7709999999999999</v>
       </c>
     </row>
-    <row r="778" spans="1:8">
+    <row r="778" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A778">
         <v>131.6</v>
       </c>
@@ -18033,7 +18090,7 @@
         <v>5.2380000000000004</v>
       </c>
     </row>
-    <row r="779" spans="1:8">
+    <row r="779" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A779">
         <v>138.19999999999999</v>
       </c>
@@ -18059,7 +18116,7 @@
         <v>4.71</v>
       </c>
     </row>
-    <row r="780" spans="1:8">
+    <row r="780" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A780">
         <v>144.69999999999999</v>
       </c>
@@ -18085,7 +18142,7 @@
         <v>4.1669999999999998</v>
       </c>
     </row>
-    <row r="781" spans="1:8">
+    <row r="781" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A781">
         <v>151.30000000000001</v>
       </c>
@@ -18111,7 +18168,7 @@
         <v>3.6150000000000002</v>
       </c>
     </row>
-    <row r="782" spans="1:8">
+    <row r="782" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A782">
         <v>157.9</v>
       </c>
@@ -18137,7 +18194,7 @@
         <v>3.0489999999999999</v>
       </c>
     </row>
-    <row r="783" spans="1:8">
+    <row r="783" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A783">
         <v>164.5</v>
       </c>
@@ -18163,7 +18220,7 @@
         <v>2.472</v>
       </c>
     </row>
-    <row r="784" spans="1:8">
+    <row r="784" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A784">
         <v>171</v>
       </c>
@@ -18189,7 +18246,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="785" spans="1:8">
+    <row r="785" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A785">
         <v>177.6</v>
       </c>
@@ -18215,7 +18272,7 @@
         <v>1.2649999999999999</v>
       </c>
     </row>
-    <row r="786" spans="1:8">
+    <row r="786" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A786">
         <v>184.2</v>
       </c>
@@ -18241,7 +18298,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="787" spans="1:8">
+    <row r="787" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A787">
         <v>190.8</v>
       </c>
@@ -18267,7 +18324,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="791" spans="1:8">
+    <row r="791" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>30</v>
       </c>
@@ -18281,7 +18338,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="793" spans="1:8">
+    <row r="793" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>26</v>
       </c>
@@ -18307,7 +18364,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="794" spans="1:8">
+    <row r="794" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>40</v>
       </c>
@@ -18327,7 +18384,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="795" spans="1:8">
+    <row r="795" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A795">
         <v>0</v>
       </c>
@@ -18353,7 +18410,7 @@
         <v>8.18</v>
       </c>
     </row>
-    <row r="796" spans="1:8">
+    <row r="796" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A796">
         <v>6.9</v>
       </c>
@@ -18379,7 +18436,7 @@
         <v>8.2110000000000003</v>
       </c>
     </row>
-    <row r="797" spans="1:8">
+    <row r="797" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A797">
         <v>13.7</v>
       </c>
@@ -18405,7 +18462,7 @@
         <v>8.24</v>
       </c>
     </row>
-    <row r="798" spans="1:8">
+    <row r="798" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A798">
         <v>20.6</v>
       </c>
@@ -18431,7 +18488,7 @@
         <v>8.2669999999999995</v>
       </c>
     </row>
-    <row r="799" spans="1:8">
+    <row r="799" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A799">
         <v>27.5</v>
       </c>
@@ -18457,7 +18514,7 @@
         <v>8.2910000000000004</v>
       </c>
     </row>
-    <row r="800" spans="1:8">
+    <row r="800" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A800">
         <v>34.4</v>
       </c>
@@ -18483,7 +18540,7 @@
         <v>8.3130000000000006</v>
       </c>
     </row>
-    <row r="801" spans="1:8">
+    <row r="801" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A801">
         <v>41.2</v>
       </c>
@@ -18509,7 +18566,7 @@
         <v>8.3290000000000006</v>
       </c>
     </row>
-    <row r="802" spans="1:8">
+    <row r="802" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A802">
         <v>48.1</v>
       </c>
@@ -18535,7 +18592,7 @@
         <v>8.3379999999999992</v>
       </c>
     </row>
-    <row r="803" spans="1:8">
+    <row r="803" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A803">
         <v>55</v>
       </c>
@@ -18561,7 +18618,7 @@
         <v>8.3409999999999993</v>
       </c>
     </row>
-    <row r="804" spans="1:8">
+    <row r="804" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A804">
         <v>61.9</v>
       </c>
@@ -18587,7 +18644,7 @@
         <v>8.3320000000000007</v>
       </c>
     </row>
-    <row r="805" spans="1:8">
+    <row r="805" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A805">
         <v>68.7</v>
       </c>
@@ -18613,7 +18670,7 @@
         <v>8.3130000000000006</v>
       </c>
     </row>
-    <row r="806" spans="1:8">
+    <row r="806" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A806">
         <v>75.599999999999994</v>
       </c>
@@ -18639,7 +18696,7 @@
         <v>8.2810000000000006</v>
       </c>
     </row>
-    <row r="807" spans="1:8">
+    <row r="807" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A807">
         <v>82.5</v>
       </c>
@@ -18665,7 +18722,7 @@
         <v>8.2379999999999995</v>
       </c>
     </row>
-    <row r="808" spans="1:8">
+    <row r="808" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A808">
         <v>89.4</v>
       </c>
@@ -18691,7 +18748,7 @@
         <v>8.1780000000000008</v>
       </c>
     </row>
-    <row r="809" spans="1:8">
+    <row r="809" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A809">
         <v>96.2</v>
       </c>
@@ -18717,7 +18774,7 @@
         <v>8.1039999999999992</v>
       </c>
     </row>
-    <row r="810" spans="1:8">
+    <row r="810" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A810">
         <v>103.1</v>
       </c>
@@ -18743,7 +18800,7 @@
         <v>7.9980000000000002</v>
       </c>
     </row>
-    <row r="811" spans="1:8">
+    <row r="811" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A811">
         <v>110</v>
       </c>
@@ -18769,7 +18826,7 @@
         <v>7.8550000000000004</v>
       </c>
     </row>
-    <row r="812" spans="1:8">
+    <row r="812" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A812">
         <v>116.9</v>
       </c>
@@ -18795,7 +18852,7 @@
         <v>7.617</v>
       </c>
     </row>
-    <row r="813" spans="1:8">
+    <row r="813" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A813">
         <v>123.7</v>
       </c>
@@ -18821,7 +18878,7 @@
         <v>7.2210000000000001</v>
       </c>
     </row>
-    <row r="814" spans="1:8">
+    <row r="814" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A814">
         <v>130.6</v>
       </c>
@@ -18847,7 +18904,7 @@
         <v>6.6020000000000003</v>
       </c>
     </row>
-    <row r="815" spans="1:8">
+    <row r="815" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A815">
         <v>137.5</v>
       </c>
@@ -18873,7 +18930,7 @@
         <v>5.9870000000000001</v>
       </c>
     </row>
-    <row r="816" spans="1:8">
+    <row r="816" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A816">
         <v>144.30000000000001</v>
       </c>
@@ -18899,7 +18956,7 @@
         <v>5.3810000000000002</v>
       </c>
     </row>
-    <row r="817" spans="1:8">
+    <row r="817" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A817">
         <v>151.19999999999999</v>
       </c>
@@ -18925,7 +18982,7 @@
         <v>4.7569999999999997</v>
       </c>
     </row>
-    <row r="818" spans="1:8">
+    <row r="818" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A818">
         <v>158.1</v>
       </c>
@@ -18951,7 +19008,7 @@
         <v>4.125</v>
       </c>
     </row>
-    <row r="819" spans="1:8">
+    <row r="819" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A819">
         <v>165</v>
       </c>
@@ -18977,7 +19034,7 @@
         <v>3.488</v>
       </c>
     </row>
-    <row r="820" spans="1:8">
+    <row r="820" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A820">
         <v>171.8</v>
       </c>
@@ -19003,7 +19060,7 @@
         <v>2.8380000000000001</v>
       </c>
     </row>
-    <row r="821" spans="1:8">
+    <row r="821" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A821">
         <v>178.7</v>
       </c>
@@ -19029,7 +19086,7 @@
         <v>2.1749999999999998</v>
       </c>
     </row>
-    <row r="822" spans="1:8">
+    <row r="822" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A822">
         <v>185.6</v>
       </c>
@@ -19055,7 +19112,7 @@
         <v>1.4830000000000001</v>
       </c>
     </row>
-    <row r="823" spans="1:8">
+    <row r="823" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A823">
         <v>192.5</v>
       </c>
@@ -19081,7 +19138,7 @@
         <v>0.76900000000000002</v>
       </c>
     </row>
-    <row r="824" spans="1:8">
+    <row r="824" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A824">
         <v>199.3</v>
       </c>
@@ -19107,7 +19164,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="828" spans="1:8">
+    <row r="828" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>30</v>
       </c>
@@ -19121,7 +19178,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="830" spans="1:8">
+    <row r="830" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>26</v>
       </c>
@@ -19147,7 +19204,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="831" spans="1:8">
+    <row r="831" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>40</v>
       </c>
@@ -19167,7 +19224,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="832" spans="1:8">
+    <row r="832" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A832">
         <v>0</v>
       </c>
@@ -19193,7 +19250,7 @@
         <v>9.49</v>
       </c>
     </row>
-    <row r="833" spans="1:8">
+    <row r="833" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A833">
         <v>7.2</v>
       </c>
@@ -19219,7 +19276,7 @@
         <v>9.5340000000000007</v>
       </c>
     </row>
-    <row r="834" spans="1:8">
+    <row r="834" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A834">
         <v>14.3</v>
       </c>
@@ -19245,7 +19302,7 @@
         <v>9.5739999999999998</v>
       </c>
     </row>
-    <row r="835" spans="1:8">
+    <row r="835" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A835">
         <v>21.5</v>
       </c>
@@ -19271,7 +19328,7 @@
         <v>9.6170000000000009</v>
       </c>
     </row>
-    <row r="836" spans="1:8">
+    <row r="836" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A836">
         <v>28.7</v>
       </c>
@@ -19297,7 +19354,7 @@
         <v>9.6509999999999998</v>
       </c>
     </row>
-    <row r="837" spans="1:8">
+    <row r="837" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A837">
         <v>35.799999999999997</v>
       </c>
@@ -19323,7 +19380,7 @@
         <v>9.6820000000000004</v>
       </c>
     </row>
-    <row r="838" spans="1:8">
+    <row r="838" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A838">
         <v>43</v>
       </c>
@@ -19349,7 +19406,7 @@
         <v>9.7210000000000001</v>
       </c>
     </row>
-    <row r="839" spans="1:8">
+    <row r="839" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A839">
         <v>50.2</v>
       </c>
@@ -19375,7 +19432,7 @@
         <v>9.7590000000000003</v>
       </c>
     </row>
-    <row r="840" spans="1:8">
+    <row r="840" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A840">
         <v>57.3</v>
       </c>
@@ -19401,7 +19458,7 @@
         <v>9.7989999999999995</v>
       </c>
     </row>
-    <row r="841" spans="1:8">
+    <row r="841" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A841">
         <v>64.5</v>
       </c>
@@ -19427,7 +19484,7 @@
         <v>9.7750000000000004</v>
       </c>
     </row>
-    <row r="842" spans="1:8">
+    <row r="842" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A842">
         <v>71.7</v>
       </c>
@@ -19453,7 +19510,7 @@
         <v>9.7509999999999994</v>
       </c>
     </row>
-    <row r="843" spans="1:8">
+    <row r="843" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A843">
         <v>78.8</v>
       </c>
@@ -19479,7 +19536,7 @@
         <v>9.6690000000000005</v>
       </c>
     </row>
-    <row r="844" spans="1:8">
+    <row r="844" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A844">
         <v>86</v>
       </c>
@@ -19505,7 +19562,7 @@
         <v>9.5589999999999993</v>
       </c>
     </row>
-    <row r="845" spans="1:8">
+    <row r="845" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A845">
         <v>93.2</v>
       </c>
@@ -19531,7 +19588,7 @@
         <v>9.4190000000000005</v>
       </c>
     </row>
-    <row r="846" spans="1:8">
+    <row r="846" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A846">
         <v>100.3</v>
       </c>
@@ -19557,7 +19614,7 @@
         <v>9.2550000000000008</v>
       </c>
     </row>
-    <row r="847" spans="1:8">
+    <row r="847" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A847">
         <v>107.5</v>
       </c>
@@ -19583,7 +19640,7 @@
         <v>9.0960000000000001</v>
       </c>
     </row>
-    <row r="848" spans="1:8">
+    <row r="848" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A848">
         <v>114.7</v>
       </c>
@@ -19609,7 +19666,7 @@
         <v>8.923</v>
       </c>
     </row>
-    <row r="849" spans="1:8">
+    <row r="849" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A849">
         <v>121.8</v>
       </c>
@@ -19635,7 +19692,7 @@
         <v>8.7059999999999995</v>
       </c>
     </row>
-    <row r="850" spans="1:8">
+    <row r="850" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A850">
         <v>129</v>
       </c>
@@ -19661,7 +19718,7 @@
         <v>8.4090000000000007</v>
       </c>
     </row>
-    <row r="851" spans="1:8">
+    <row r="851" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A851">
         <v>136.1</v>
       </c>
@@ -19687,7 +19744,7 @@
         <v>7.9720000000000004</v>
       </c>
     </row>
-    <row r="852" spans="1:8">
+    <row r="852" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A852">
         <v>143.30000000000001</v>
       </c>
@@ -19713,7 +19770,7 @@
         <v>7.2030000000000003</v>
       </c>
     </row>
-    <row r="853" spans="1:8">
+    <row r="853" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A853">
         <v>150.5</v>
       </c>
@@ -19739,7 +19796,7 @@
         <v>6.3869999999999996</v>
       </c>
     </row>
-    <row r="854" spans="1:8">
+    <row r="854" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A854">
         <v>157.6</v>
       </c>
@@ -19765,7 +19822,7 @@
         <v>5.5309999999999997</v>
       </c>
     </row>
-    <row r="855" spans="1:8">
+    <row r="855" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A855">
         <v>164.8</v>
       </c>
@@ -19791,7 +19848,7 @@
         <v>4.8040000000000003</v>
       </c>
     </row>
-    <row r="856" spans="1:8">
+    <row r="856" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A856">
         <v>172</v>
       </c>
@@ -19817,7 +19874,7 @@
         <v>4.0730000000000004</v>
       </c>
     </row>
-    <row r="857" spans="1:8">
+    <row r="857" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A857">
         <v>179.1</v>
       </c>
@@ -19843,7 +19900,7 @@
         <v>3.3130000000000002</v>
       </c>
     </row>
-    <row r="858" spans="1:8">
+    <row r="858" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A858">
         <v>186.3</v>
       </c>
@@ -19869,7 +19926,7 @@
         <v>2.516</v>
       </c>
     </row>
-    <row r="859" spans="1:8">
+    <row r="859" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A859">
         <v>193.5</v>
       </c>
@@ -19895,7 +19952,7 @@
         <v>1.704</v>
       </c>
     </row>
-    <row r="860" spans="1:8">
+    <row r="860" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A860">
         <v>200.6</v>
       </c>
@@ -19921,7 +19978,7 @@
         <v>0.86199999999999999</v>
       </c>
     </row>
-    <row r="861" spans="1:8">
+    <row r="861" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A861">
         <v>207.8</v>
       </c>
@@ -19947,7 +20004,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="865" spans="1:8">
+    <row r="865" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>30</v>
       </c>
@@ -19961,7 +20018,7 @@
         <v>26999</v>
       </c>
     </row>
-    <row r="867" spans="1:8">
+    <row r="867" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>26</v>
       </c>
@@ -19987,7 +20044,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="868" spans="1:8">
+    <row r="868" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>40</v>
       </c>
@@ -20007,7 +20064,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="869" spans="1:8">
+    <row r="869" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A869">
         <v>0</v>
       </c>
@@ -20033,7 +20090,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="870" spans="1:8">
+    <row r="870" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A870">
         <v>8.5</v>
       </c>
@@ -20059,7 +20116,7 @@
         <v>13.992000000000001</v>
       </c>
     </row>
-    <row r="871" spans="1:8">
+    <row r="871" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A871">
         <v>17</v>
       </c>
@@ -20085,7 +20142,7 @@
         <v>14.069000000000001</v>
       </c>
     </row>
-    <row r="872" spans="1:8">
+    <row r="872" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A872">
         <v>25.4</v>
       </c>
@@ -20111,7 +20168,7 @@
         <v>14.137</v>
       </c>
     </row>
-    <row r="873" spans="1:8">
+    <row r="873" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A873">
         <v>33.9</v>
       </c>
@@ -20137,7 +20194,7 @@
         <v>14.077999999999999</v>
       </c>
     </row>
-    <row r="874" spans="1:8">
+    <row r="874" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A874">
         <v>42.4</v>
       </c>
@@ -20163,7 +20220,7 @@
         <v>14.042999999999999</v>
       </c>
     </row>
-    <row r="875" spans="1:8">
+    <row r="875" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A875">
         <v>50.9</v>
       </c>
@@ -20189,7 +20246,7 @@
         <v>13.962999999999999</v>
       </c>
     </row>
-    <row r="876" spans="1:8">
+    <row r="876" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A876">
         <v>59.4</v>
       </c>
@@ -20215,7 +20272,7 @@
         <v>13.743</v>
       </c>
     </row>
-    <row r="877" spans="1:8">
+    <row r="877" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A877">
         <v>67.900000000000006</v>
       </c>
@@ -20241,7 +20298,7 @@
         <v>13.464</v>
       </c>
     </row>
-    <row r="878" spans="1:8">
+    <row r="878" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A878">
         <v>76.3</v>
       </c>
@@ -20267,7 +20324,7 @@
         <v>13.356</v>
       </c>
     </row>
-    <row r="879" spans="1:8">
+    <row r="879" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A879">
         <v>84.8</v>
       </c>
@@ -20293,7 +20350,7 @@
         <v>13.183</v>
       </c>
     </row>
-    <row r="880" spans="1:8">
+    <row r="880" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A880">
         <v>93.3</v>
       </c>
@@ -20319,7 +20376,7 @@
         <v>13.093999999999999</v>
       </c>
     </row>
-    <row r="881" spans="1:8">
+    <row r="881" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A881">
         <v>101.8</v>
       </c>
@@ -20345,7 +20402,7 @@
         <v>12.986000000000001</v>
       </c>
     </row>
-    <row r="882" spans="1:8">
+    <row r="882" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A882">
         <v>110.3</v>
       </c>
@@ -20371,7 +20428,7 @@
         <v>12.797000000000001</v>
       </c>
     </row>
-    <row r="883" spans="1:8">
+    <row r="883" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A883">
         <v>118.7</v>
       </c>
@@ -20397,7 +20454,7 @@
         <v>12.606999999999999</v>
       </c>
     </row>
-    <row r="884" spans="1:8">
+    <row r="884" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A884">
         <v>127.2</v>
       </c>
@@ -20423,7 +20480,7 @@
         <v>12.355</v>
       </c>
     </row>
-    <row r="885" spans="1:8">
+    <row r="885" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A885">
         <v>135.69999999999999</v>
       </c>
@@ -20449,7 +20506,7 @@
         <v>12.057</v>
       </c>
     </row>
-    <row r="886" spans="1:8">
+    <row r="886" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A886">
         <v>144.19999999999999</v>
       </c>
@@ -20475,7 +20532,7 @@
         <v>11.62</v>
       </c>
     </row>
-    <row r="887" spans="1:8">
+    <row r="887" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A887">
         <v>152.69999999999999</v>
       </c>
@@ -20501,7 +20558,7 @@
         <v>11.195</v>
       </c>
     </row>
-    <row r="888" spans="1:8">
+    <row r="888" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A888">
         <v>161.1</v>
       </c>
@@ -20527,7 +20584,7 @@
         <v>10.651999999999999</v>
       </c>
     </row>
-    <row r="889" spans="1:8">
+    <row r="889" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A889">
         <v>169.6</v>
       </c>
@@ -20553,7 +20610,7 @@
         <v>10.053000000000001</v>
       </c>
     </row>
-    <row r="890" spans="1:8">
+    <row r="890" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A890">
         <v>178.1</v>
       </c>
@@ -20579,7 +20636,7 @@
         <v>9.2810000000000006</v>
       </c>
     </row>
-    <row r="891" spans="1:8">
+    <row r="891" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A891">
         <v>186.6</v>
       </c>
@@ -20605,7 +20662,7 @@
         <v>8.3650000000000002</v>
       </c>
     </row>
-    <row r="892" spans="1:8">
+    <row r="892" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A892">
         <v>195.1</v>
       </c>
@@ -20631,7 +20688,7 @@
         <v>7.5869999999999997</v>
       </c>
     </row>
-    <row r="893" spans="1:8">
+    <row r="893" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A893">
         <v>203.6</v>
       </c>
@@ -20657,35 +20714,33 @@
         <v>6.4630000000000001</v>
       </c>
     </row>
-    <row r="894" spans="1:8">
+    <row r="894" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A894">
         <v>212</v>
       </c>
-      <c r="B894" t="s">
-        <v>46</v>
-      </c>
-      <c r="C894" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D894" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E894" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F894" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G894" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="895" spans="1:8">
+      <c r="B894">
+        <v>0.98</v>
+      </c>
+      <c r="C894">
+        <v>0</v>
+      </c>
+      <c r="D894">
+        <v>0</v>
+      </c>
+      <c r="E894">
+        <v>0</v>
+      </c>
+      <c r="F894">
+        <v>0</v>
+      </c>
+      <c r="G894">
+        <v>0</v>
+      </c>
+      <c r="H894">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="895" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A895">
         <v>220.5</v>
       </c>
@@ -20711,7 +20766,7 @@
         <v>3.8519999999999999</v>
       </c>
     </row>
-    <row r="896" spans="1:8">
+    <row r="896" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A896">
         <v>229</v>
       </c>
@@ -20737,7 +20792,7 @@
         <v>2.5089999999999999</v>
       </c>
     </row>
-    <row r="897" spans="1:8">
+    <row r="897" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A897">
         <v>237.5</v>
       </c>
@@ -20763,7 +20818,7 @@
         <v>1.151</v>
       </c>
     </row>
-    <row r="898" spans="1:8">
+    <row r="898" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A898">
         <v>246</v>
       </c>
@@ -20789,7 +20844,7 @@
         <v>-4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="902" spans="1:8">
+    <row r="902" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
         <v>30</v>
       </c>
@@ -20803,7 +20858,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="904" spans="1:8">
+    <row r="904" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
         <v>26</v>
       </c>
@@ -20829,7 +20884,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="905" spans="1:8">
+    <row r="905" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
         <v>40</v>
       </c>
@@ -20849,7 +20904,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="906" spans="1:8">
+    <row r="906" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A906">
         <v>0</v>
       </c>
@@ -20875,7 +20930,7 @@
         <v>14.044</v>
       </c>
     </row>
-    <row r="907" spans="1:8">
+    <row r="907" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A907">
         <v>8.6999999999999993</v>
       </c>
@@ -20901,7 +20956,7 @@
         <v>14.038</v>
       </c>
     </row>
-    <row r="908" spans="1:8">
+    <row r="908" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A908">
         <v>17.399999999999999</v>
       </c>
@@ -20927,7 +20982,7 @@
         <v>14.13</v>
       </c>
     </row>
-    <row r="909" spans="1:8">
+    <row r="909" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A909">
         <v>26.2</v>
       </c>
@@ -20953,7 +21008,7 @@
         <v>14.321999999999999</v>
       </c>
     </row>
-    <row r="910" spans="1:8">
+    <row r="910" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A910">
         <v>34.9</v>
       </c>
@@ -20979,7 +21034,7 @@
         <v>14.393000000000001</v>
       </c>
     </row>
-    <row r="911" spans="1:8">
+    <row r="911" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A911">
         <v>43.6</v>
       </c>
@@ -21005,7 +21060,7 @@
         <v>14.352</v>
       </c>
     </row>
-    <row r="912" spans="1:8">
+    <row r="912" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A912">
         <v>52.3</v>
       </c>
@@ -21031,7 +21086,7 @@
         <v>14.337</v>
       </c>
     </row>
-    <row r="913" spans="1:8">
+    <row r="913" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A913">
         <v>61.1</v>
       </c>
@@ -21057,7 +21112,7 @@
         <v>14.417</v>
       </c>
     </row>
-    <row r="914" spans="1:8">
+    <row r="914" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A914">
         <v>69.8</v>
       </c>
@@ -21083,7 +21138,7 @@
         <v>14.359</v>
       </c>
     </row>
-    <row r="915" spans="1:8">
+    <row r="915" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A915">
         <v>78.5</v>
       </c>
@@ -21109,7 +21164,7 @@
         <v>14.343</v>
       </c>
     </row>
-    <row r="916" spans="1:8">
+    <row r="916" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A916">
         <v>87.2</v>
       </c>
@@ -21135,7 +21190,7 @@
         <v>14.278</v>
       </c>
     </row>
-    <row r="917" spans="1:8">
+    <row r="917" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A917">
         <v>96</v>
       </c>
@@ -21161,7 +21216,7 @@
         <v>14.252000000000001</v>
       </c>
     </row>
-    <row r="918" spans="1:8">
+    <row r="918" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A918">
         <v>104.7</v>
       </c>
@@ -21187,7 +21242,7 @@
         <v>14.022</v>
       </c>
     </row>
-    <row r="919" spans="1:8">
+    <row r="919" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A919">
         <v>113.4</v>
       </c>
@@ -21213,7 +21268,7 @@
         <v>13.891999999999999</v>
       </c>
     </row>
-    <row r="920" spans="1:8">
+    <row r="920" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A920">
         <v>122.1</v>
       </c>
@@ -21239,7 +21294,7 @@
         <v>13.657999999999999</v>
       </c>
     </row>
-    <row r="921" spans="1:8">
+    <row r="921" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A921">
         <v>130.80000000000001</v>
       </c>
@@ -21265,7 +21320,7 @@
         <v>13.597</v>
       </c>
     </row>
-    <row r="922" spans="1:8">
+    <row r="922" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A922">
         <v>139.6</v>
       </c>
@@ -21291,7 +21346,7 @@
         <v>13.364000000000001</v>
       </c>
     </row>
-    <row r="923" spans="1:8">
+    <row r="923" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A923">
         <v>148.30000000000001</v>
       </c>
@@ -21317,7 +21372,7 @@
         <v>12.734999999999999</v>
       </c>
     </row>
-    <row r="924" spans="1:8">
+    <row r="924" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A924">
         <v>157</v>
       </c>
@@ -21343,7 +21398,7 @@
         <v>11.872999999999999</v>
       </c>
     </row>
-    <row r="925" spans="1:8">
+    <row r="925" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A925">
         <v>165.7</v>
       </c>
@@ -21369,7 +21424,7 @@
         <v>11.074</v>
       </c>
     </row>
-    <row r="926" spans="1:8">
+    <row r="926" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A926">
         <v>174.5</v>
       </c>
@@ -21395,7 +21450,7 @@
         <v>10.388999999999999</v>
       </c>
     </row>
-    <row r="927" spans="1:8">
+    <row r="927" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A927">
         <v>183.2</v>
       </c>
@@ -21421,7 +21476,7 @@
         <v>9.4600000000000009</v>
       </c>
     </row>
-    <row r="928" spans="1:8">
+    <row r="928" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A928">
         <v>191.9</v>
       </c>
@@ -21447,7 +21502,7 @@
         <v>8.5960000000000001</v>
       </c>
     </row>
-    <row r="929" spans="1:8">
+    <row r="929" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A929">
         <v>200.6</v>
       </c>
@@ -21473,7 +21528,7 @@
         <v>7.66</v>
       </c>
     </row>
-    <row r="930" spans="1:8">
+    <row r="930" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A930">
         <v>209.3</v>
       </c>
@@ -21499,7 +21554,7 @@
         <v>6.6749999999999998</v>
       </c>
     </row>
-    <row r="931" spans="1:8">
+    <row r="931" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A931">
         <v>218.1</v>
       </c>
@@ -21525,7 +21580,7 @@
         <v>5.5830000000000002</v>
       </c>
     </row>
-    <row r="932" spans="1:8">
+    <row r="932" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A932">
         <v>226.8</v>
       </c>
@@ -21551,35 +21606,33 @@
         <v>4.1180000000000003</v>
       </c>
     </row>
-    <row r="933" spans="1:8">
+    <row r="933" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A933">
         <v>235.5</v>
       </c>
-      <c r="B933" t="s">
-        <v>47</v>
-      </c>
-      <c r="C933" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D933" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E933" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F933" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G933" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="934" spans="1:8">
+      <c r="B933">
+        <v>1.04</v>
+      </c>
+      <c r="C933">
+        <v>0</v>
+      </c>
+      <c r="D933">
+        <v>0</v>
+      </c>
+      <c r="E933">
+        <v>0</v>
+      </c>
+      <c r="F933">
+        <v>0</v>
+      </c>
+      <c r="G933">
+        <v>0</v>
+      </c>
+      <c r="H933">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="934" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A934">
         <v>244.2</v>
       </c>
@@ -21605,7 +21658,7 @@
         <v>0.95599999999999996</v>
       </c>
     </row>
-    <row r="935" spans="1:8">
+    <row r="935" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A935">
         <v>253</v>
       </c>
@@ -21638,24 +21691,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
